--- a/Datasets/Jain Jr Dataset/processed.xlsx
+++ b/Datasets/Jain Jr Dataset/processed.xlsx
@@ -7,16 +7,90 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Acclerometer" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear_Acceleration" sheetId="2" r:id="rId2"/>
+    <sheet name="Gyroscope" sheetId="3" r:id="rId3"/>
+    <sheet name="Magnetometer" sheetId="4" r:id="rId4"/>
+    <sheet name="Events" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="19">
+  <si>
+    <t>M0_x</t>
+  </si>
+  <si>
+    <t>M1_x</t>
+  </si>
+  <si>
+    <t>M2_x</t>
+  </si>
+  <si>
+    <t>MD0_x</t>
+  </si>
+  <si>
+    <t>MD1_x</t>
+  </si>
+  <si>
+    <t>MD2_x</t>
+  </si>
+  <si>
+    <t>SD0_x</t>
+  </si>
+  <si>
+    <t>SD1_x</t>
+  </si>
+  <si>
+    <t>SD2_x</t>
+  </si>
+  <si>
+    <t>T1_x</t>
+  </si>
+  <si>
+    <t>T2_x</t>
+  </si>
+  <si>
+    <t>maneuver</t>
+  </si>
+  <si>
+    <t>Aggressive right turn</t>
+  </si>
+  <si>
+    <t>Aggressive left turn</t>
+  </si>
+  <si>
+    <t>Aggressive right lane change</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Non-aggressive event</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +114,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +432,5864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.394119299412789</v>
+      </c>
+      <c r="C2">
+        <v>0.6372844715981488</v>
+      </c>
+      <c r="D2">
+        <v>0.4637572551739103</v>
+      </c>
+      <c r="E2">
+        <v>1.60177363798444</v>
+      </c>
+      <c r="F2">
+        <v>0.3816140822146621</v>
+      </c>
+      <c r="G2">
+        <v>0.2769937831139302</v>
+      </c>
+      <c r="H2">
+        <v>1.245806748989416</v>
+      </c>
+      <c r="I2">
+        <v>1.245485626401895</v>
+      </c>
+      <c r="J2">
+        <v>1.171419616410164</v>
+      </c>
+      <c r="K2">
+        <v>-0.08575331843325459</v>
+      </c>
+      <c r="L2">
+        <v>0.08371078599556649</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.066464985476522</v>
+      </c>
+      <c r="C3">
+        <v>1.730292142444656</v>
+      </c>
+      <c r="D3">
+        <v>1.113677976224273</v>
+      </c>
+      <c r="E3">
+        <v>2.666775920530558</v>
+      </c>
+      <c r="F3">
+        <v>2.216043677305467</v>
+      </c>
+      <c r="G3">
+        <v>0.9142086984399159</v>
+      </c>
+      <c r="H3">
+        <v>1.927013278399271</v>
+      </c>
+      <c r="I3">
+        <v>1.649476286366211</v>
+      </c>
+      <c r="J3">
+        <v>1.645949221737441</v>
+      </c>
+      <c r="K3">
+        <v>0.6746396910719045</v>
+      </c>
+      <c r="L3">
+        <v>-0.05785259225620153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.161569414161281</v>
+      </c>
+      <c r="C4">
+        <v>0.5035995908294217</v>
+      </c>
+      <c r="D4">
+        <v>0.3066852207130542</v>
+      </c>
+      <c r="E4">
+        <v>1.19560064133105</v>
+      </c>
+      <c r="F4">
+        <v>0.3850996438102857</v>
+      </c>
+      <c r="G4">
+        <v>0.2700090665128805</v>
+      </c>
+      <c r="H4">
+        <v>1.206749264603955</v>
+      </c>
+      <c r="I4">
+        <v>1.310202266421499</v>
+      </c>
+      <c r="J4">
+        <v>1.22888988605169</v>
+      </c>
+      <c r="K4">
+        <v>-0.1328979832117068</v>
+      </c>
+      <c r="L4">
+        <v>-0.07502222291433444</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.305345670743209</v>
+      </c>
+      <c r="C5">
+        <v>1.733457542452245</v>
+      </c>
+      <c r="D5">
+        <v>1.10418161746735</v>
+      </c>
+      <c r="E5">
+        <v>2.799916294795121</v>
+      </c>
+      <c r="F5">
+        <v>2.220912064391529</v>
+      </c>
+      <c r="G5">
+        <v>1.056708084148209</v>
+      </c>
+      <c r="H5">
+        <v>1.846857052233305</v>
+      </c>
+      <c r="I5">
+        <v>1.655222617138228</v>
+      </c>
+      <c r="J5">
+        <v>1.728814433061551</v>
+      </c>
+      <c r="K5">
+        <v>0.5038591083769268</v>
+      </c>
+      <c r="L5">
+        <v>-0.06696185932614238</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.2761917384695329</v>
+      </c>
+      <c r="C6">
+        <v>1.014576966136838</v>
+      </c>
+      <c r="D6">
+        <v>1.063574448811652</v>
+      </c>
+      <c r="E6">
+        <v>-0.517206457968399</v>
+      </c>
+      <c r="F6">
+        <v>0.9620204776999497</v>
+      </c>
+      <c r="G6">
+        <v>1.163993685975566</v>
+      </c>
+      <c r="H6">
+        <v>1.269491220297863</v>
+      </c>
+      <c r="I6">
+        <v>2.041803219411136</v>
+      </c>
+      <c r="J6">
+        <v>1.803891661031027</v>
+      </c>
+      <c r="K6">
+        <v>-8.346903073632356</v>
+      </c>
+      <c r="L6">
+        <v>-4.20566314038903</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.057979909301482</v>
+      </c>
+      <c r="C7">
+        <v>0.6034561397959414</v>
+      </c>
+      <c r="D7">
+        <v>0.4095475086031409</v>
+      </c>
+      <c r="E7">
+        <v>0.9808212117467648</v>
+      </c>
+      <c r="F7">
+        <v>0.3225308762025811</v>
+      </c>
+      <c r="G7">
+        <v>0.2401214044277946</v>
+      </c>
+      <c r="H7">
+        <v>0.8997964018870899</v>
+      </c>
+      <c r="I7">
+        <v>0.8204122432707399</v>
+      </c>
+      <c r="J7">
+        <v>0.8339232119287604</v>
+      </c>
+      <c r="K7">
+        <v>0.1407705089492028</v>
+      </c>
+      <c r="L7">
+        <v>0.02053937511146794</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.963837496915971</v>
+      </c>
+      <c r="C8">
+        <v>2.010908703108726</v>
+      </c>
+      <c r="D8">
+        <v>1.390249925502618</v>
+      </c>
+      <c r="E8">
+        <v>3.064371384960679</v>
+      </c>
+      <c r="F8">
+        <v>1.941752740471345</v>
+      </c>
+      <c r="G8">
+        <v>0.9808212117467648</v>
+      </c>
+      <c r="H8">
+        <v>0.9850413856041017</v>
+      </c>
+      <c r="I8">
+        <v>1.340978215388935</v>
+      </c>
+      <c r="J8">
+        <v>1.418680894080364</v>
+      </c>
+      <c r="K8">
+        <v>0.3569628599416687</v>
+      </c>
+      <c r="L8">
+        <v>0.05024984346995171</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.09073227970556065</v>
+      </c>
+      <c r="C9">
+        <v>1.527284888310766</v>
+      </c>
+      <c r="D9">
+        <v>1.370849895307671</v>
+      </c>
+      <c r="E9">
+        <v>0.1461301566659472</v>
+      </c>
+      <c r="F9">
+        <v>1.906459927123852</v>
+      </c>
+      <c r="G9">
+        <v>1.349082256802766</v>
+      </c>
+      <c r="H9">
+        <v>1.729395260639613</v>
+      </c>
+      <c r="I9">
+        <v>2.011234366724843</v>
+      </c>
+      <c r="J9">
+        <v>1.733040971329902</v>
+      </c>
+      <c r="K9">
+        <v>32.66574483231383</v>
+      </c>
+      <c r="L9">
+        <v>11.66045769746753</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.682016430266319</v>
+      </c>
+      <c r="C10">
+        <v>1.16684607521881</v>
+      </c>
+      <c r="D10">
+        <v>0.8765236158541464</v>
+      </c>
+      <c r="E10">
+        <v>1.263351276895985</v>
+      </c>
+      <c r="F10">
+        <v>0.7342796948849575</v>
+      </c>
+      <c r="G10">
+        <v>0.5473950703484372</v>
+      </c>
+      <c r="H10">
+        <v>1.686126855099538</v>
+      </c>
+      <c r="I10">
+        <v>1.372511058822571</v>
+      </c>
+      <c r="J10">
+        <v>1.227617988875803</v>
+      </c>
+      <c r="K10">
+        <v>0.375185934342794</v>
+      </c>
+      <c r="L10">
+        <v>0.175907138480195</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.964293718513599</v>
+      </c>
+      <c r="C11">
+        <v>1.821784796291671</v>
+      </c>
+      <c r="D11">
+        <v>1.432661956317073</v>
+      </c>
+      <c r="E11">
+        <v>2.084319540948146</v>
+      </c>
+      <c r="F11">
+        <v>2.017065926492487</v>
+      </c>
+      <c r="G11">
+        <v>1.192319474593692</v>
+      </c>
+      <c r="H11">
+        <v>2.037051588974664</v>
+      </c>
+      <c r="I11">
+        <v>1.864331741157734</v>
+      </c>
+      <c r="J11">
+        <v>1.66101344175679</v>
+      </c>
+      <c r="K11">
+        <v>0.85629578428786</v>
+      </c>
+      <c r="L11">
+        <v>0.3212701339018363</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.537479147925829</v>
+      </c>
+      <c r="C12">
+        <v>0.873637319985419</v>
+      </c>
+      <c r="D12">
+        <v>0.616414510255777</v>
+      </c>
+      <c r="E12">
+        <v>1.265599144229047</v>
+      </c>
+      <c r="F12">
+        <v>0.5257982072882683</v>
+      </c>
+      <c r="G12">
+        <v>0.3691309783256296</v>
+      </c>
+      <c r="H12">
+        <v>1.497011568701468</v>
+      </c>
+      <c r="I12">
+        <v>1.294174043565971</v>
+      </c>
+      <c r="J12">
+        <v>1.193187180017248</v>
+      </c>
+      <c r="K12">
+        <v>0.1364542031858054</v>
+      </c>
+      <c r="L12">
+        <v>0.0663221292685864</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.865773493278157</v>
+      </c>
+      <c r="C13">
+        <v>2.195050606021041</v>
+      </c>
+      <c r="D13">
+        <v>1.528945271726451</v>
+      </c>
+      <c r="E13">
+        <v>2.974531364991175</v>
+      </c>
+      <c r="F13">
+        <v>1.94667344134945</v>
+      </c>
+      <c r="G13">
+        <v>0.9038310966498351</v>
+      </c>
+      <c r="H13">
+        <v>1.51195078328955</v>
+      </c>
+      <c r="I13">
+        <v>1.638938120085095</v>
+      </c>
+      <c r="J13">
+        <v>1.656483325634793</v>
+      </c>
+      <c r="K13">
+        <v>0.5364970928554116</v>
+      </c>
+      <c r="L13">
+        <v>0.07320728331708622</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1.043275678057106</v>
+      </c>
+      <c r="C14">
+        <v>0.8729248961268467</v>
+      </c>
+      <c r="D14">
+        <v>1.09444298005984</v>
+      </c>
+      <c r="E14">
+        <v>-1.017751550463467</v>
+      </c>
+      <c r="F14">
+        <v>0.8818632398272506</v>
+      </c>
+      <c r="G14">
+        <v>1.068468016701841</v>
+      </c>
+      <c r="H14">
+        <v>1.573884904354917</v>
+      </c>
+      <c r="I14">
+        <v>2.493265621804169</v>
+      </c>
+      <c r="J14">
+        <v>2.228584341499821</v>
+      </c>
+      <c r="K14">
+        <v>-2.746899552585268</v>
+      </c>
+      <c r="L14">
+        <v>-1.473703624327827</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.267274283327501</v>
+      </c>
+      <c r="C15">
+        <v>1.038273837429186</v>
+      </c>
+      <c r="D15">
+        <v>0.6590104076735761</v>
+      </c>
+      <c r="E15">
+        <v>2.47285331452904</v>
+      </c>
+      <c r="F15">
+        <v>0.7474065371233696</v>
+      </c>
+      <c r="G15">
+        <v>0.4789406333654207</v>
+      </c>
+      <c r="H15">
+        <v>1.190750402235516</v>
+      </c>
+      <c r="I15">
+        <v>1.64587201779362</v>
+      </c>
+      <c r="J15">
+        <v>1.559960961757449</v>
+      </c>
+      <c r="K15">
+        <v>-0.08412154183181376</v>
+      </c>
+      <c r="L15">
+        <v>-0.04389255087901844</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.798506808273339</v>
+      </c>
+      <c r="C16">
+        <v>2.03289054580042</v>
+      </c>
+      <c r="D16">
+        <v>1.29168482771057</v>
+      </c>
+      <c r="E16">
+        <v>2.608159153237732</v>
+      </c>
+      <c r="F16">
+        <v>2.604585287127543</v>
+      </c>
+      <c r="G16">
+        <v>1.216755455693705</v>
+      </c>
+      <c r="H16">
+        <v>2.107719926226771</v>
+      </c>
+      <c r="I16">
+        <v>1.719492025801881</v>
+      </c>
+      <c r="J16">
+        <v>1.841361357699892</v>
+      </c>
+      <c r="K16">
+        <v>1.26064259134176</v>
+      </c>
+      <c r="L16">
+        <v>-0.106047198482522</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-1.260999146125354</v>
+      </c>
+      <c r="C17">
+        <v>0.2687538310739928</v>
+      </c>
+      <c r="D17">
+        <v>0.9349273151584954</v>
+      </c>
+      <c r="E17">
+        <v>-1.473150294480831</v>
+      </c>
+      <c r="F17">
+        <v>-0.1763178426203069</v>
+      </c>
+      <c r="G17">
+        <v>1.232179877787514</v>
+      </c>
+      <c r="H17">
+        <v>1.693454793730686</v>
+      </c>
+      <c r="I17">
+        <v>2.445866034961218</v>
+      </c>
+      <c r="J17">
+        <v>2.30973555776533</v>
+      </c>
+      <c r="K17">
+        <v>-1.426255373605584</v>
+      </c>
+      <c r="L17">
+        <v>-1.797998270097255</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.3275196938486865</v>
+      </c>
+      <c r="C18">
+        <v>0.4879699651633941</v>
+      </c>
+      <c r="D18">
+        <v>0.3802358994086112</v>
+      </c>
+      <c r="E18">
+        <v>0.2848559892609952</v>
+      </c>
+      <c r="F18">
+        <v>0.5117193275324614</v>
+      </c>
+      <c r="G18">
+        <v>0.4125502643064873</v>
+      </c>
+      <c r="H18">
+        <v>0.5543956513019394</v>
+      </c>
+      <c r="I18">
+        <v>0.5922862408338946</v>
+      </c>
+      <c r="J18">
+        <v>0.6370949203222465</v>
+      </c>
+      <c r="K18">
+        <v>1.979790066540764</v>
+      </c>
+      <c r="L18">
+        <v>0.5030774362385905</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.859771954729601</v>
+      </c>
+      <c r="C19">
+        <v>1.593645824289143</v>
+      </c>
+      <c r="D19">
+        <v>1.27857062835213</v>
+      </c>
+      <c r="E19">
+        <v>2.910370571305106</v>
+      </c>
+      <c r="F19">
+        <v>1.392175070586484</v>
+      </c>
+      <c r="G19">
+        <v>0.9435110429712994</v>
+      </c>
+      <c r="H19">
+        <v>0.7255145153639891</v>
+      </c>
+      <c r="I19">
+        <v>1.425371173074113</v>
+      </c>
+      <c r="J19">
+        <v>1.290182531816656</v>
+      </c>
+      <c r="K19">
+        <v>0.11452650736959</v>
+      </c>
+      <c r="L19">
+        <v>0.2267384416459219</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.6959653661558954</v>
+      </c>
+      <c r="C20">
+        <v>1.777868660442747</v>
+      </c>
+      <c r="D20">
+        <v>1.294419004911394</v>
+      </c>
+      <c r="E20">
+        <v>0.8930050148156425</v>
+      </c>
+      <c r="F20">
+        <v>2.134469523137369</v>
+      </c>
+      <c r="G20">
+        <v>1.184547266614118</v>
+      </c>
+      <c r="H20">
+        <v>1.442236895745057</v>
+      </c>
+      <c r="I20">
+        <v>1.57238997023438</v>
+      </c>
+      <c r="J20">
+        <v>1.488112039552311</v>
+      </c>
+      <c r="K20">
+        <v>4.109072223701739</v>
+      </c>
+      <c r="L20">
+        <v>0.470597690309955</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.864130069519861</v>
+      </c>
+      <c r="C21">
+        <v>0.968627554267934</v>
+      </c>
+      <c r="D21">
+        <v>0.7363190809054613</v>
+      </c>
+      <c r="E21">
+        <v>2.097592963190588</v>
+      </c>
+      <c r="F21">
+        <v>0.6440730584101539</v>
+      </c>
+      <c r="G21">
+        <v>0.4810042509901127</v>
+      </c>
+      <c r="H21">
+        <v>1.608492848656944</v>
+      </c>
+      <c r="I21">
+        <v>1.565118019727874</v>
+      </c>
+      <c r="J21">
+        <v>1.377707492876367</v>
+      </c>
+      <c r="K21">
+        <v>0.03922743386401217</v>
+      </c>
+      <c r="L21">
+        <v>0.1457527769242505</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2.192760504327243</v>
+      </c>
+      <c r="C22">
+        <v>2.028445286923553</v>
+      </c>
+      <c r="D22">
+        <v>1.376671870954371</v>
+      </c>
+      <c r="E22">
+        <v>2.909720944636116</v>
+      </c>
+      <c r="F22">
+        <v>2.479090923581401</v>
+      </c>
+      <c r="G22">
+        <v>0.9397348504059266</v>
+      </c>
+      <c r="H22">
+        <v>2.039897253595303</v>
+      </c>
+      <c r="I22">
+        <v>1.835231257229401</v>
+      </c>
+      <c r="J22">
+        <v>1.82529220181491</v>
+      </c>
+      <c r="K22">
+        <v>0.8501293533156701</v>
+      </c>
+      <c r="L22">
+        <v>0.03334839298304589</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.162477560695072</v>
+      </c>
+      <c r="C23">
+        <v>0.5486695712179861</v>
+      </c>
+      <c r="D23">
+        <v>0.3441602006635172</v>
+      </c>
+      <c r="E23">
+        <v>0.9702574621612656</v>
+      </c>
+      <c r="F23">
+        <v>0.3503006777004987</v>
+      </c>
+      <c r="G23">
+        <v>0.2653107588066854</v>
+      </c>
+      <c r="H23">
+        <v>1.225321861930925</v>
+      </c>
+      <c r="I23">
+        <v>1.186891147930149</v>
+      </c>
+      <c r="J23">
+        <v>1.159381409574457</v>
+      </c>
+      <c r="K23">
+        <v>-0.05603412957076995</v>
+      </c>
+      <c r="L23">
+        <v>-0.06283038721532613</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2.594253528360297</v>
+      </c>
+      <c r="C24">
+        <v>1.878365544527685</v>
+      </c>
+      <c r="D24">
+        <v>1.230530890265423</v>
+      </c>
+      <c r="E24">
+        <v>2.959791174674724</v>
+      </c>
+      <c r="F24">
+        <v>2.061469769588278</v>
+      </c>
+      <c r="G24">
+        <v>0.9056350572832186</v>
+      </c>
+      <c r="H24">
+        <v>1.675574944623757</v>
+      </c>
+      <c r="I24">
+        <v>1.628103448586494</v>
+      </c>
+      <c r="J24">
+        <v>1.671997321845876</v>
+      </c>
+      <c r="K24">
+        <v>0.4480971300556806</v>
+      </c>
+      <c r="L24">
+        <v>-0.02510873264583016</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.5535965011619858</v>
+      </c>
+      <c r="C25">
+        <v>1.573925014761141</v>
+      </c>
+      <c r="D25">
+        <v>1.436775863405785</v>
+      </c>
+      <c r="E25">
+        <v>0.369853681503372</v>
+      </c>
+      <c r="F25">
+        <v>1.964216140991578</v>
+      </c>
+      <c r="G25">
+        <v>1.445951510473407</v>
+      </c>
+      <c r="H25">
+        <v>1.391707776068562</v>
+      </c>
+      <c r="I25">
+        <v>1.843933764646389</v>
+      </c>
+      <c r="J25">
+        <v>1.670636055378291</v>
+      </c>
+      <c r="K25">
+        <v>4.686181222090495</v>
+      </c>
+      <c r="L25">
+        <v>2.099864356539573</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2.720296305560033</v>
+      </c>
+      <c r="C26">
+        <v>1.541584461428258</v>
+      </c>
+      <c r="D26">
+        <v>1.062350884646289</v>
+      </c>
+      <c r="E26">
+        <v>3.534086357662791</v>
+      </c>
+      <c r="F26">
+        <v>0.7863353316991439</v>
+      </c>
+      <c r="G26">
+        <v>0.4734151817036434</v>
+      </c>
+      <c r="H26">
+        <v>1.757674824704024</v>
+      </c>
+      <c r="I26">
+        <v>1.756491893962853</v>
+      </c>
+      <c r="J26">
+        <v>1.617450704488011</v>
+      </c>
+      <c r="K26">
+        <v>0.1333945190289765</v>
+      </c>
+      <c r="L26">
+        <v>0.0381883881068484</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.7946945554843561</v>
+      </c>
+      <c r="C27">
+        <v>1.757495430522195</v>
+      </c>
+      <c r="D27">
+        <v>1.292621159446957</v>
+      </c>
+      <c r="E27">
+        <v>1.613847056610396</v>
+      </c>
+      <c r="F27">
+        <v>2.400128833554851</v>
+      </c>
+      <c r="G27">
+        <v>0.8440319877731035</v>
+      </c>
+      <c r="H27">
+        <v>2.116790158343814</v>
+      </c>
+      <c r="I27">
+        <v>2.164208385997672</v>
+      </c>
+      <c r="J27">
+        <v>1.910184587261912</v>
+      </c>
+      <c r="K27">
+        <v>3.423071527024679</v>
+      </c>
+      <c r="L27">
+        <v>0.4566189799492412</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-1.498212424423942</v>
+      </c>
+      <c r="C28">
+        <v>-0.6414640067642212</v>
+      </c>
+      <c r="D28">
+        <v>-0.5786176266259989</v>
+      </c>
+      <c r="E28">
+        <v>-1.709237037959841</v>
+      </c>
+      <c r="F28">
+        <v>-0.1777267916000582</v>
+      </c>
+      <c r="G28">
+        <v>-0.1653505754557223</v>
+      </c>
+      <c r="H28">
+        <v>1.172864809967561</v>
+      </c>
+      <c r="I28">
+        <v>1.236894275299026</v>
+      </c>
+      <c r="J28">
+        <v>1.20846640267462</v>
+      </c>
+      <c r="K28">
+        <v>-0.1436941834054508</v>
+      </c>
+      <c r="L28">
+        <v>0.302310179094732</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.838757550166932</v>
+      </c>
+      <c r="C29">
+        <v>0.1702725628714949</v>
+      </c>
+      <c r="D29">
+        <v>0.1852765122128297</v>
+      </c>
+      <c r="E29">
+        <v>1.579144373452578</v>
+      </c>
+      <c r="F29">
+        <v>0.1508911209116559</v>
+      </c>
+      <c r="G29">
+        <v>0.1785374154285222</v>
+      </c>
+      <c r="H29">
+        <v>1.190563526965387</v>
+      </c>
+      <c r="I29">
+        <v>2.047951326721634</v>
+      </c>
+      <c r="J29">
+        <v>1.69081048163742</v>
+      </c>
+      <c r="K29">
+        <v>-0.8147960693827887</v>
+      </c>
+      <c r="L29">
+        <v>0.1170814558319309</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.693453746570808</v>
+      </c>
+      <c r="C30">
+        <v>0.7296365796940577</v>
+      </c>
+      <c r="D30">
+        <v>0.3379507618588445</v>
+      </c>
+      <c r="E30">
+        <v>1.370523080587265</v>
+      </c>
+      <c r="F30">
+        <v>0.3184339609597533</v>
+      </c>
+      <c r="G30">
+        <v>-0.07154279461505908</v>
+      </c>
+      <c r="H30">
+        <v>2.217409689033687</v>
+      </c>
+      <c r="I30">
+        <v>2.048599932271328</v>
+      </c>
+      <c r="J30">
+        <v>1.885454771433832</v>
+      </c>
+      <c r="K30">
+        <v>-0.1382857888247027</v>
+      </c>
+      <c r="L30">
+        <v>-0.2630251193535965</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-2.677222197346863</v>
+      </c>
+      <c r="C31">
+        <v>-0.4918842253880274</v>
+      </c>
+      <c r="D31">
+        <v>-0.4059830126529156</v>
+      </c>
+      <c r="E31">
+        <v>-3.88995290738805</v>
+      </c>
+      <c r="F31">
+        <v>-0.09620430178138406</v>
+      </c>
+      <c r="G31">
+        <v>-0.1367301802859813</v>
+      </c>
+      <c r="H31">
+        <v>3.450074474760895</v>
+      </c>
+      <c r="I31">
+        <v>3.626248627281207</v>
+      </c>
+      <c r="J31">
+        <v>3.049645118170104</v>
+      </c>
+      <c r="K31">
+        <v>-0.6325413513488073</v>
+      </c>
+      <c r="L31">
+        <v>0.08747147973551328</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.1624658568048578</v>
+      </c>
+      <c r="C32">
+        <v>-1.257378170271002</v>
+      </c>
+      <c r="D32">
+        <v>-0.2737675313237323</v>
+      </c>
+      <c r="E32">
+        <v>0.6441143879054163</v>
+      </c>
+      <c r="F32">
+        <v>-0.003271723496506951</v>
+      </c>
+      <c r="G32">
+        <v>0.3625509937978215</v>
+      </c>
+      <c r="H32">
+        <v>1.52375928793248</v>
+      </c>
+      <c r="I32">
+        <v>3.012959521162605</v>
+      </c>
+      <c r="J32">
+        <v>3.097927602269194</v>
+      </c>
+      <c r="K32">
+        <v>-16.47867588919036</v>
+      </c>
+      <c r="L32">
+        <v>10.42344391538748</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.4834755621423021</v>
+      </c>
+      <c r="C33">
+        <v>0.2417931503869243</v>
+      </c>
+      <c r="D33">
+        <v>0.06422082514662113</v>
+      </c>
+      <c r="E33">
+        <v>2.046309104084813</v>
+      </c>
+      <c r="F33">
+        <v>0.08764470446786188</v>
+      </c>
+      <c r="G33">
+        <v>-0.2156691091681147</v>
+      </c>
+      <c r="H33">
+        <v>3.671593754022448</v>
+      </c>
+      <c r="I33">
+        <v>2.672024761629757</v>
+      </c>
+      <c r="J33">
+        <v>2.222194164299597</v>
+      </c>
+      <c r="K33">
+        <v>0.0002290470092341977</v>
+      </c>
+      <c r="L33">
+        <v>-0.6017342925149899</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-1.571591516857978</v>
+      </c>
+      <c r="C34">
+        <v>-0.544057977357838</v>
+      </c>
+      <c r="D34">
+        <v>-0.3626684053613765</v>
+      </c>
+      <c r="E34">
+        <v>-0.5747703613499748</v>
+      </c>
+      <c r="F34">
+        <v>-0.2840878297517553</v>
+      </c>
+      <c r="G34">
+        <v>-0.2075408504867227</v>
+      </c>
+      <c r="H34">
+        <v>2.202696413759525</v>
+      </c>
+      <c r="I34">
+        <v>3.184613032925929</v>
+      </c>
+      <c r="J34">
+        <v>2.660022380582088</v>
+      </c>
+      <c r="K34">
+        <v>-0.3076343674270373</v>
+      </c>
+      <c r="L34">
+        <v>-7.046273179681719e-05</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.394119308274214</v>
+      </c>
+      <c r="C2">
+        <v>0.637284474213667</v>
+      </c>
+      <c r="D2">
+        <v>0.4637572570051016</v>
+      </c>
+      <c r="E2">
+        <v>1.601773569396366</v>
+      </c>
+      <c r="F2">
+        <v>0.3816140634709688</v>
+      </c>
+      <c r="G2">
+        <v>0.2769938077808511</v>
+      </c>
+      <c r="H2">
+        <v>1.245806753703967</v>
+      </c>
+      <c r="I2">
+        <v>1.245485633506765</v>
+      </c>
+      <c r="J2">
+        <v>1.171419623805527</v>
+      </c>
+      <c r="K2">
+        <v>-0.08575332049225602</v>
+      </c>
+      <c r="L2">
+        <v>0.08371078565179516</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.066464957671967</v>
+      </c>
+      <c r="C3">
+        <v>1.730292132973091</v>
+      </c>
+      <c r="D3">
+        <v>1.113677968699767</v>
+      </c>
+      <c r="E3">
+        <v>2.666776356232723</v>
+      </c>
+      <c r="F3">
+        <v>2.216043639493579</v>
+      </c>
+      <c r="G3">
+        <v>0.914208672543305</v>
+      </c>
+      <c r="H3">
+        <v>1.92701327707118</v>
+      </c>
+      <c r="I3">
+        <v>1.649476283587515</v>
+      </c>
+      <c r="J3">
+        <v>1.645949218889986</v>
+      </c>
+      <c r="K3">
+        <v>0.6746397044374747</v>
+      </c>
+      <c r="L3">
+        <v>-0.05785259479142764</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.16156940456139</v>
+      </c>
+      <c r="C4">
+        <v>0.5035995868820217</v>
+      </c>
+      <c r="D4">
+        <v>0.3066852167393171</v>
+      </c>
+      <c r="E4">
+        <v>1.195600588304091</v>
+      </c>
+      <c r="F4">
+        <v>0.3850996462210001</v>
+      </c>
+      <c r="G4">
+        <v>0.2700090779311779</v>
+      </c>
+      <c r="H4">
+        <v>1.206749251676123</v>
+      </c>
+      <c r="I4">
+        <v>1.310202261245311</v>
+      </c>
+      <c r="J4">
+        <v>1.228889881076269</v>
+      </c>
+      <c r="K4">
+        <v>-0.1328979828421331</v>
+      </c>
+      <c r="L4">
+        <v>-0.07502222700071702</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.305345703674831</v>
+      </c>
+      <c r="C5">
+        <v>1.733457554118111</v>
+      </c>
+      <c r="D5">
+        <v>1.104181625812958</v>
+      </c>
+      <c r="E5">
+        <v>2.799916421493442</v>
+      </c>
+      <c r="F5">
+        <v>2.220912084363647</v>
+      </c>
+      <c r="G5">
+        <v>1.056708140046265</v>
+      </c>
+      <c r="H5">
+        <v>1.846857089891873</v>
+      </c>
+      <c r="I5">
+        <v>1.655222640693755</v>
+      </c>
+      <c r="J5">
+        <v>1.728814452285701</v>
+      </c>
+      <c r="K5">
+        <v>0.5038590970151647</v>
+      </c>
+      <c r="L5">
+        <v>-0.06696185762997402</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.276191715279557</v>
+      </c>
+      <c r="C6">
+        <v>1.014576994197637</v>
+      </c>
+      <c r="D6">
+        <v>1.063574464318888</v>
+      </c>
+      <c r="E6">
+        <v>-0.5172069163262449</v>
+      </c>
+      <c r="F6">
+        <v>0.9620206476223601</v>
+      </c>
+      <c r="G6">
+        <v>1.163993656159853</v>
+      </c>
+      <c r="H6">
+        <v>1.269491235988664</v>
+      </c>
+      <c r="I6">
+        <v>2.041803244213282</v>
+      </c>
+      <c r="J6">
+        <v>1.803891676153669</v>
+      </c>
+      <c r="K6">
+        <v>-8.346903893700778</v>
+      </c>
+      <c r="L6">
+        <v>-4.205663458752436</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.057979909197886</v>
+      </c>
+      <c r="C7">
+        <v>0.6034561446541525</v>
+      </c>
+      <c r="D7">
+        <v>0.4095475083524094</v>
+      </c>
+      <c r="E7">
+        <v>0.9808212803340162</v>
+      </c>
+      <c r="F7">
+        <v>0.3225309614022347</v>
+      </c>
+      <c r="G7">
+        <v>0.2401213891647717</v>
+      </c>
+      <c r="H7">
+        <v>0.8997964015952069</v>
+      </c>
+      <c r="I7">
+        <v>0.8204122391852496</v>
+      </c>
+      <c r="J7">
+        <v>0.8339232126885435</v>
+      </c>
+      <c r="K7">
+        <v>0.1407705182448441</v>
+      </c>
+      <c r="L7">
+        <v>0.02053936521856831</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.963837501654194</v>
+      </c>
+      <c r="C8">
+        <v>2.01090870542604</v>
+      </c>
+      <c r="D8">
+        <v>1.390249930320833</v>
+      </c>
+      <c r="E8">
+        <v>3.064371217466576</v>
+      </c>
+      <c r="F8">
+        <v>1.94175281114509</v>
+      </c>
+      <c r="G8">
+        <v>0.9808212803340162</v>
+      </c>
+      <c r="H8">
+        <v>0.98504136963018</v>
+      </c>
+      <c r="I8">
+        <v>1.340978211220476</v>
+      </c>
+      <c r="J8">
+        <v>1.418680888817375</v>
+      </c>
+      <c r="K8">
+        <v>0.3569628593360465</v>
+      </c>
+      <c r="L8">
+        <v>0.05024984670289667</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.09073229262215203</v>
+      </c>
+      <c r="C9">
+        <v>1.527284897138174</v>
+      </c>
+      <c r="D9">
+        <v>1.370849901158077</v>
+      </c>
+      <c r="E9">
+        <v>0.1461303511010783</v>
+      </c>
+      <c r="F9">
+        <v>1.906459808453381</v>
+      </c>
+      <c r="G9">
+        <v>1.349082345253741</v>
+      </c>
+      <c r="H9">
+        <v>1.729395263749469</v>
+      </c>
+      <c r="I9">
+        <v>2.011234361225921</v>
+      </c>
+      <c r="J9">
+        <v>1.733040967580609</v>
+      </c>
+      <c r="K9">
+        <v>32.66574023426122</v>
+      </c>
+      <c r="L9">
+        <v>11.66045603635042</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.682016403424128</v>
+      </c>
+      <c r="C10">
+        <v>1.166846058368246</v>
+      </c>
+      <c r="D10">
+        <v>0.8765236060435023</v>
+      </c>
+      <c r="E10">
+        <v>1.263351259635886</v>
+      </c>
+      <c r="F10">
+        <v>0.7342797098270157</v>
+      </c>
+      <c r="G10">
+        <v>0.5473950085640489</v>
+      </c>
+      <c r="H10">
+        <v>1.686126828072275</v>
+      </c>
+      <c r="I10">
+        <v>1.372511037355927</v>
+      </c>
+      <c r="J10">
+        <v>1.227617969392763</v>
+      </c>
+      <c r="K10">
+        <v>0.3751859364899445</v>
+      </c>
+      <c r="L10">
+        <v>0.1759071438255216</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.964293722219106</v>
+      </c>
+      <c r="C11">
+        <v>1.821784784575039</v>
+      </c>
+      <c r="D11">
+        <v>1.432661946318533</v>
+      </c>
+      <c r="E11">
+        <v>2.084319676074884</v>
+      </c>
+      <c r="F11">
+        <v>2.017066255214658</v>
+      </c>
+      <c r="G11">
+        <v>1.19231944773572</v>
+      </c>
+      <c r="H11">
+        <v>2.037051601975949</v>
+      </c>
+      <c r="I11">
+        <v>1.864331737066969</v>
+      </c>
+      <c r="J11">
+        <v>1.661013437422767</v>
+      </c>
+      <c r="K11">
+        <v>0.8562957690074559</v>
+      </c>
+      <c r="L11">
+        <v>0.3212701300074395</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.537479151366759</v>
+      </c>
+      <c r="C12">
+        <v>0.873637326837281</v>
+      </c>
+      <c r="D12">
+        <v>0.6164145193855795</v>
+      </c>
+      <c r="E12">
+        <v>1.265599127321789</v>
+      </c>
+      <c r="F12">
+        <v>0.5257982000097172</v>
+      </c>
+      <c r="G12">
+        <v>0.3691310014228453</v>
+      </c>
+      <c r="H12">
+        <v>1.497011585668975</v>
+      </c>
+      <c r="I12">
+        <v>1.294174051535504</v>
+      </c>
+      <c r="J12">
+        <v>1.193187186561437</v>
+      </c>
+      <c r="K12">
+        <v>0.1364542095554945</v>
+      </c>
+      <c r="L12">
+        <v>0.0663221380215336</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.86577352263635</v>
+      </c>
+      <c r="C13">
+        <v>2.195050622292298</v>
+      </c>
+      <c r="D13">
+        <v>1.528945285981711</v>
+      </c>
+      <c r="E13">
+        <v>2.974531611185817</v>
+      </c>
+      <c r="F13">
+        <v>1.946673608031947</v>
+      </c>
+      <c r="G13">
+        <v>0.9038312075533756</v>
+      </c>
+      <c r="H13">
+        <v>1.511950757773117</v>
+      </c>
+      <c r="I13">
+        <v>1.638938121603107</v>
+      </c>
+      <c r="J13">
+        <v>1.656483328256101</v>
+      </c>
+      <c r="K13">
+        <v>0.5364970885600076</v>
+      </c>
+      <c r="L13">
+        <v>0.07320728614827995</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1.043275665636087</v>
+      </c>
+      <c r="C14">
+        <v>0.8729249168504015</v>
+      </c>
+      <c r="D14">
+        <v>1.09444299502252</v>
+      </c>
+      <c r="E14">
+        <v>-1.017751670119942</v>
+      </c>
+      <c r="F14">
+        <v>0.8818634124976583</v>
+      </c>
+      <c r="G14">
+        <v>1.068468071985482</v>
+      </c>
+      <c r="H14">
+        <v>1.573884935377792</v>
+      </c>
+      <c r="I14">
+        <v>2.493265630887685</v>
+      </c>
+      <c r="J14">
+        <v>2.22858435084886</v>
+      </c>
+      <c r="K14">
+        <v>-2.74689961342967</v>
+      </c>
+      <c r="L14">
+        <v>-1.473703645171628</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.267274233896468</v>
+      </c>
+      <c r="C15">
+        <v>1.038273816300721</v>
+      </c>
+      <c r="D15">
+        <v>0.6590103944327147</v>
+      </c>
+      <c r="E15">
+        <v>2.472853286960369</v>
+      </c>
+      <c r="F15">
+        <v>0.7474065278063247</v>
+      </c>
+      <c r="G15">
+        <v>0.478940630677771</v>
+      </c>
+      <c r="H15">
+        <v>1.190750355645497</v>
+      </c>
+      <c r="I15">
+        <v>1.645871980410808</v>
+      </c>
+      <c r="J15">
+        <v>1.559960931152018</v>
+      </c>
+      <c r="K15">
+        <v>-0.08412154050163087</v>
+      </c>
+      <c r="L15">
+        <v>-0.04389255071816862</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.798506840919751</v>
+      </c>
+      <c r="C16">
+        <v>2.032890537408109</v>
+      </c>
+      <c r="D16">
+        <v>1.291684824507064</v>
+      </c>
+      <c r="E16">
+        <v>2.608159457487462</v>
+      </c>
+      <c r="F16">
+        <v>2.604585450283573</v>
+      </c>
+      <c r="G16">
+        <v>1.216755437986135</v>
+      </c>
+      <c r="H16">
+        <v>2.107719922835651</v>
+      </c>
+      <c r="I16">
+        <v>1.719492002122604</v>
+      </c>
+      <c r="J16">
+        <v>1.841361339186461</v>
+      </c>
+      <c r="K16">
+        <v>1.260642540974151</v>
+      </c>
+      <c r="L16">
+        <v>-0.1060471925686359</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-1.260999099619867</v>
+      </c>
+      <c r="C17">
+        <v>0.2687538706499418</v>
+      </c>
+      <c r="D17">
+        <v>0.9349273250654503</v>
+      </c>
+      <c r="E17">
+        <v>-1.473150197246326</v>
+      </c>
+      <c r="F17">
+        <v>-0.1763179909029464</v>
+      </c>
+      <c r="G17">
+        <v>1.232179839867746</v>
+      </c>
+      <c r="H17">
+        <v>1.693454771824041</v>
+      </c>
+      <c r="I17">
+        <v>2.445866021628877</v>
+      </c>
+      <c r="J17">
+        <v>2.309735523256446</v>
+      </c>
+      <c r="K17">
+        <v>-1.426255452095024</v>
+      </c>
+      <c r="L17">
+        <v>-1.797998297207307</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.3275196926903976</v>
+      </c>
+      <c r="C18">
+        <v>0.4879699638309486</v>
+      </c>
+      <c r="D18">
+        <v>0.3802358997230702</v>
+      </c>
+      <c r="E18">
+        <v>0.2848560261143653</v>
+      </c>
+      <c r="F18">
+        <v>0.5117193395866502</v>
+      </c>
+      <c r="G18">
+        <v>0.4125502124951623</v>
+      </c>
+      <c r="H18">
+        <v>0.5543956491892607</v>
+      </c>
+      <c r="I18">
+        <v>0.5922862382922368</v>
+      </c>
+      <c r="J18">
+        <v>0.6370949167158541</v>
+      </c>
+      <c r="K18">
+        <v>1.97979006894235</v>
+      </c>
+      <c r="L18">
+        <v>0.5030774490346979</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.859771934129308</v>
+      </c>
+      <c r="C19">
+        <v>1.593645813409853</v>
+      </c>
+      <c r="D19">
+        <v>1.278570620597068</v>
+      </c>
+      <c r="E19">
+        <v>2.910370730043645</v>
+      </c>
+      <c r="F19">
+        <v>1.392175035659934</v>
+      </c>
+      <c r="G19">
+        <v>0.9435110544158852</v>
+      </c>
+      <c r="H19">
+        <v>0.7255145505481911</v>
+      </c>
+      <c r="I19">
+        <v>1.425371172812601</v>
+      </c>
+      <c r="J19">
+        <v>1.290182529626558</v>
+      </c>
+      <c r="K19">
+        <v>0.1145265077895503</v>
+      </c>
+      <c r="L19">
+        <v>0.2267384427524004</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.6959654085348598</v>
+      </c>
+      <c r="C20">
+        <v>1.777868671332084</v>
+      </c>
+      <c r="D20">
+        <v>1.294419011784855</v>
+      </c>
+      <c r="E20">
+        <v>0.8930051983846496</v>
+      </c>
+      <c r="F20">
+        <v>2.134469554205264</v>
+      </c>
+      <c r="G20">
+        <v>1.184547276408352</v>
+      </c>
+      <c r="H20">
+        <v>1.442236847891706</v>
+      </c>
+      <c r="I20">
+        <v>1.572389934660913</v>
+      </c>
+      <c r="J20">
+        <v>1.488112016943552</v>
+      </c>
+      <c r="K20">
+        <v>4.109071943891112</v>
+      </c>
+      <c r="L20">
+        <v>0.4705976599898681</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.864130064081044</v>
+      </c>
+      <c r="C21">
+        <v>0.9686275493156581</v>
+      </c>
+      <c r="D21">
+        <v>0.7363190797911251</v>
+      </c>
+      <c r="E21">
+        <v>2.097593121503489</v>
+      </c>
+      <c r="F21">
+        <v>0.6440730733816022</v>
+      </c>
+      <c r="G21">
+        <v>0.4810042641507479</v>
+      </c>
+      <c r="H21">
+        <v>1.608492838171786</v>
+      </c>
+      <c r="I21">
+        <v>1.565118012131155</v>
+      </c>
+      <c r="J21">
+        <v>1.377707486565562</v>
+      </c>
+      <c r="K21">
+        <v>0.03922743158284946</v>
+      </c>
+      <c r="L21">
+        <v>0.1457527808693968</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2.192760507664385</v>
+      </c>
+      <c r="C22">
+        <v>2.028445285872715</v>
+      </c>
+      <c r="D22">
+        <v>1.376671868765234</v>
+      </c>
+      <c r="E22">
+        <v>2.909720918956138</v>
+      </c>
+      <c r="F22">
+        <v>2.479090957191043</v>
+      </c>
+      <c r="G22">
+        <v>0.9397351501094988</v>
+      </c>
+      <c r="H22">
+        <v>2.039897278742314</v>
+      </c>
+      <c r="I22">
+        <v>1.835231266914122</v>
+      </c>
+      <c r="J22">
+        <v>1.825292207974738</v>
+      </c>
+      <c r="K22">
+        <v>0.850129349541514</v>
+      </c>
+      <c r="L22">
+        <v>0.03334839089571205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.162477558261257</v>
+      </c>
+      <c r="C23">
+        <v>0.5486695702478966</v>
+      </c>
+      <c r="D23">
+        <v>0.3441602018209194</v>
+      </c>
+      <c r="E23">
+        <v>0.9702574560620914</v>
+      </c>
+      <c r="F23">
+        <v>0.3503006792729813</v>
+      </c>
+      <c r="G23">
+        <v>0.2653107875593959</v>
+      </c>
+      <c r="H23">
+        <v>1.225321852983472</v>
+      </c>
+      <c r="I23">
+        <v>1.18689114239657</v>
+      </c>
+      <c r="J23">
+        <v>1.159381402546373</v>
+      </c>
+      <c r="K23">
+        <v>-0.05603412926344376</v>
+      </c>
+      <c r="L23">
+        <v>-0.06283038261775968</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2.5942535667984</v>
+      </c>
+      <c r="C24">
+        <v>1.878365562529828</v>
+      </c>
+      <c r="D24">
+        <v>1.230530902431398</v>
+      </c>
+      <c r="E24">
+        <v>2.959791319400002</v>
+      </c>
+      <c r="F24">
+        <v>2.061469801326506</v>
+      </c>
+      <c r="G24">
+        <v>0.905635049754384</v>
+      </c>
+      <c r="H24">
+        <v>1.675574923443871</v>
+      </c>
+      <c r="I24">
+        <v>1.628103443536858</v>
+      </c>
+      <c r="J24">
+        <v>1.671997323038377</v>
+      </c>
+      <c r="K24">
+        <v>0.4480971224782336</v>
+      </c>
+      <c r="L24">
+        <v>-0.02510873208352253</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.5535964577489967</v>
+      </c>
+      <c r="C25">
+        <v>1.573925012273699</v>
+      </c>
+      <c r="D25">
+        <v>1.436775860936218</v>
+      </c>
+      <c r="E25">
+        <v>0.3698536398261183</v>
+      </c>
+      <c r="F25">
+        <v>1.964216314210738</v>
+      </c>
+      <c r="G25">
+        <v>1.4459512639264</v>
+      </c>
+      <c r="H25">
+        <v>1.391707759627196</v>
+      </c>
+      <c r="I25">
+        <v>1.843933771845603</v>
+      </c>
+      <c r="J25">
+        <v>1.670636058496535</v>
+      </c>
+      <c r="K25">
+        <v>4.686181659013879</v>
+      </c>
+      <c r="L25">
+        <v>2.099864516814394</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2.720296321609252</v>
+      </c>
+      <c r="C26">
+        <v>1.541584468172427</v>
+      </c>
+      <c r="D26">
+        <v>1.062350887876364</v>
+      </c>
+      <c r="E26">
+        <v>3.534086560072162</v>
+      </c>
+      <c r="F26">
+        <v>0.7863353072593195</v>
+      </c>
+      <c r="G26">
+        <v>0.4734151390550991</v>
+      </c>
+      <c r="H26">
+        <v>1.757674829590976</v>
+      </c>
+      <c r="I26">
+        <v>1.756491903231106</v>
+      </c>
+      <c r="J26">
+        <v>1.617450713022989</v>
+      </c>
+      <c r="K26">
+        <v>0.1333945173005767</v>
+      </c>
+      <c r="L26">
+        <v>0.03818838648533045</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.7946945271624561</v>
+      </c>
+      <c r="C27">
+        <v>1.757495424385855</v>
+      </c>
+      <c r="D27">
+        <v>1.292621154502437</v>
+      </c>
+      <c r="E27">
+        <v>1.613847080692111</v>
+      </c>
+      <c r="F27">
+        <v>2.400128565022063</v>
+      </c>
+      <c r="G27">
+        <v>0.8440319970337065</v>
+      </c>
+      <c r="H27">
+        <v>2.116790158502014</v>
+      </c>
+      <c r="I27">
+        <v>2.164208398006616</v>
+      </c>
+      <c r="J27">
+        <v>1.910184596049507</v>
+      </c>
+      <c r="K27">
+        <v>3.423071669214042</v>
+      </c>
+      <c r="L27">
+        <v>0.4566189930000863</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-1.498212394542745</v>
+      </c>
+      <c r="C28">
+        <v>-0.6414639941694286</v>
+      </c>
+      <c r="D28">
+        <v>-0.5786176184477807</v>
+      </c>
+      <c r="E28">
+        <v>-1.709237006674311</v>
+      </c>
+      <c r="F28">
+        <v>-0.1777267362616755</v>
+      </c>
+      <c r="G28">
+        <v>-0.1653505182028993</v>
+      </c>
+      <c r="H28">
+        <v>1.172864800522693</v>
+      </c>
+      <c r="I28">
+        <v>1.2368942569396</v>
+      </c>
+      <c r="J28">
+        <v>1.208466383352534</v>
+      </c>
+      <c r="K28">
+        <v>-0.1436941831398965</v>
+      </c>
+      <c r="L28">
+        <v>0.3023101855613194</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.83875754799032</v>
+      </c>
+      <c r="C29">
+        <v>0.1702725767237876</v>
+      </c>
+      <c r="D29">
+        <v>0.1852765198838211</v>
+      </c>
+      <c r="E29">
+        <v>1.579144435099153</v>
+      </c>
+      <c r="F29">
+        <v>0.1508910412833746</v>
+      </c>
+      <c r="G29">
+        <v>0.1785374356924869</v>
+      </c>
+      <c r="H29">
+        <v>1.190563538244557</v>
+      </c>
+      <c r="I29">
+        <v>2.04795131410175</v>
+      </c>
+      <c r="J29">
+        <v>1.690810470478869</v>
+      </c>
+      <c r="K29">
+        <v>-0.8147960540965415</v>
+      </c>
+      <c r="L29">
+        <v>0.1170814534190135</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.693453743814252</v>
+      </c>
+      <c r="C30">
+        <v>0.7296365741856532</v>
+      </c>
+      <c r="D30">
+        <v>0.3379507564582287</v>
+      </c>
+      <c r="E30">
+        <v>1.370523037381146</v>
+      </c>
+      <c r="F30">
+        <v>0.3184339579941726</v>
+      </c>
+      <c r="G30">
+        <v>-0.07154278114667889</v>
+      </c>
+      <c r="H30">
+        <v>2.217409683542644</v>
+      </c>
+      <c r="I30">
+        <v>2.048599930436382</v>
+      </c>
+      <c r="J30">
+        <v>1.885454769203821</v>
+      </c>
+      <c r="K30">
+        <v>-0.138285793927556</v>
+      </c>
+      <c r="L30">
+        <v>-0.2630251228435542</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-2.677222215547951</v>
+      </c>
+      <c r="C31">
+        <v>-0.4918842358668496</v>
+      </c>
+      <c r="D31">
+        <v>-0.4059830223922147</v>
+      </c>
+      <c r="E31">
+        <v>-3.889952895017245</v>
+      </c>
+      <c r="F31">
+        <v>-0.09620433003972906</v>
+      </c>
+      <c r="G31">
+        <v>-0.1367302163533833</v>
+      </c>
+      <c r="H31">
+        <v>3.450074469380959</v>
+      </c>
+      <c r="I31">
+        <v>3.626248627784889</v>
+      </c>
+      <c r="J31">
+        <v>3.049645118520682</v>
+      </c>
+      <c r="K31">
+        <v>-0.6325413460188436</v>
+      </c>
+      <c r="L31">
+        <v>0.0874714822262207</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.1624658655903428</v>
+      </c>
+      <c r="C32">
+        <v>-1.257378174978804</v>
+      </c>
+      <c r="D32">
+        <v>-0.2737675353811188</v>
+      </c>
+      <c r="E32">
+        <v>0.6441143932433651</v>
+      </c>
+      <c r="F32">
+        <v>-0.003271743564981831</v>
+      </c>
+      <c r="G32">
+        <v>0.3625509529781095</v>
+      </c>
+      <c r="H32">
+        <v>1.52375928158031</v>
+      </c>
+      <c r="I32">
+        <v>3.012959522944134</v>
+      </c>
+      <c r="J32">
+        <v>3.09792760254337</v>
+      </c>
+      <c r="K32">
+        <v>-16.47867511012165</v>
+      </c>
+      <c r="L32">
+        <v>10.42344333476356</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.483475563876656</v>
+      </c>
+      <c r="C33">
+        <v>0.2417931518761266</v>
+      </c>
+      <c r="D33">
+        <v>0.06422082616617264</v>
+      </c>
+      <c r="E33">
+        <v>2.046309020741333</v>
+      </c>
+      <c r="F33">
+        <v>0.08764479262303482</v>
+      </c>
+      <c r="G33">
+        <v>-0.2156690693098291</v>
+      </c>
+      <c r="H33">
+        <v>3.671593742292555</v>
+      </c>
+      <c r="I33">
+        <v>2.672024755701802</v>
+      </c>
+      <c r="J33">
+        <v>2.222194158861421</v>
+      </c>
+      <c r="K33">
+        <v>0.000229049581553224</v>
+      </c>
+      <c r="L33">
+        <v>-0.6017342901904255</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-1.571591527880135</v>
+      </c>
+      <c r="C34">
+        <v>-0.5440579820017395</v>
+      </c>
+      <c r="D34">
+        <v>-0.3626684080426273</v>
+      </c>
+      <c r="E34">
+        <v>-0.5747703922307421</v>
+      </c>
+      <c r="F34">
+        <v>-0.2840878253964481</v>
+      </c>
+      <c r="G34">
+        <v>-0.207540843219352</v>
+      </c>
+      <c r="H34">
+        <v>2.202696427802061</v>
+      </c>
+      <c r="I34">
+        <v>3.184613033117746</v>
+      </c>
+      <c r="J34">
+        <v>2.660022382358283</v>
+      </c>
+      <c r="K34">
+        <v>-0.3076343663730481</v>
+      </c>
+      <c r="L34">
+        <v>-7.046352288913789e-05</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01232534274913003</v>
+      </c>
+      <c r="C2">
+        <v>0.009924765364769427</v>
+      </c>
+      <c r="D2">
+        <v>0.003060492809887204</v>
+      </c>
+      <c r="E2">
+        <v>0.0006495931452351611</v>
+      </c>
+      <c r="F2">
+        <v>0.006341778329495951</v>
+      </c>
+      <c r="G2">
+        <v>-0.0009119544335247364</v>
+      </c>
+      <c r="H2">
+        <v>0.07260608072168399</v>
+      </c>
+      <c r="I2">
+        <v>0.08714587229547191</v>
+      </c>
+      <c r="J2">
+        <v>0.08174542519167788</v>
+      </c>
+      <c r="K2">
+        <v>0.6104648068257504</v>
+      </c>
+      <c r="L2">
+        <v>-0.865537982757537</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.20817576383626</v>
+      </c>
+      <c r="C3">
+        <v>0.110250553292695</v>
+      </c>
+      <c r="D3">
+        <v>0.07600843152193296</v>
+      </c>
+      <c r="E3">
+        <v>0.1703376234505385</v>
+      </c>
+      <c r="F3">
+        <v>0.07293986937693075</v>
+      </c>
+      <c r="G3">
+        <v>0.04273390683780565</v>
+      </c>
+      <c r="H3">
+        <v>0.1889128494712559</v>
+      </c>
+      <c r="I3">
+        <v>0.1730935408526529</v>
+      </c>
+      <c r="J3">
+        <v>0.1599291687186027</v>
+      </c>
+      <c r="K3">
+        <v>0.05920642500355847</v>
+      </c>
+      <c r="L3">
+        <v>0.0361434388026406</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.003595478499688273</v>
+      </c>
+      <c r="C4">
+        <v>-0.00254022865440484</v>
+      </c>
+      <c r="D4">
+        <v>-0.001654835694209957</v>
+      </c>
+      <c r="E4">
+        <v>0.0007925633995749526</v>
+      </c>
+      <c r="F4">
+        <v>-0.00694207028882729</v>
+      </c>
+      <c r="G4">
+        <v>-0.008801603099581366</v>
+      </c>
+      <c r="H4">
+        <v>0.06760047320501422</v>
+      </c>
+      <c r="I4">
+        <v>0.09668408978608374</v>
+      </c>
+      <c r="J4">
+        <v>0.1031629469862331</v>
+      </c>
+      <c r="K4">
+        <v>-2.413012846343026</v>
+      </c>
+      <c r="L4">
+        <v>0.03224889988630528</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1816464244225543</v>
+      </c>
+      <c r="C5">
+        <v>0.09262095146112131</v>
+      </c>
+      <c r="D5">
+        <v>0.05885532237124821</v>
+      </c>
+      <c r="E5">
+        <v>0.1326057582848577</v>
+      </c>
+      <c r="F5">
+        <v>0.05588350164184125</v>
+      </c>
+      <c r="G5">
+        <v>0.03744773632074727</v>
+      </c>
+      <c r="H5">
+        <v>0.1746927228804169</v>
+      </c>
+      <c r="I5">
+        <v>0.1592921571263486</v>
+      </c>
+      <c r="J5">
+        <v>0.1543971104813893</v>
+      </c>
+      <c r="K5">
+        <v>0.01979383030036586</v>
+      </c>
+      <c r="L5">
+        <v>-0.04776276679311665</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.3477100108540406</v>
+      </c>
+      <c r="C6">
+        <v>0.2646782176382975</v>
+      </c>
+      <c r="D6">
+        <v>0.1776506379254277</v>
+      </c>
+      <c r="E6">
+        <v>0.3283389858717216</v>
+      </c>
+      <c r="F6">
+        <v>0.2560209610878682</v>
+      </c>
+      <c r="G6">
+        <v>0.1236019703228283</v>
+      </c>
+      <c r="H6">
+        <v>0.166905482148539</v>
+      </c>
+      <c r="I6">
+        <v>0.1893701335554043</v>
+      </c>
+      <c r="J6">
+        <v>0.2014428167787504</v>
+      </c>
+      <c r="K6">
+        <v>0.5224078075186759</v>
+      </c>
+      <c r="L6">
+        <v>0.01034045148961086</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.007240340671008569</v>
+      </c>
+      <c r="C7">
+        <v>-0.003628569206533927</v>
+      </c>
+      <c r="D7">
+        <v>-0.001397246491027805</v>
+      </c>
+      <c r="E7">
+        <v>0.01345623524551898</v>
+      </c>
+      <c r="F7">
+        <v>0.002552684936597379</v>
+      </c>
+      <c r="G7">
+        <v>0.0005248317380530249</v>
+      </c>
+      <c r="H7">
+        <v>0.06262294217428174</v>
+      </c>
+      <c r="I7">
+        <v>0.05925987861437319</v>
+      </c>
+      <c r="J7">
+        <v>0.08439600828649041</v>
+      </c>
+      <c r="K7">
+        <v>-2.002320020952404</v>
+      </c>
+      <c r="L7">
+        <v>0.4233777220260871</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.1279626276254013</v>
+      </c>
+      <c r="C8">
+        <v>-0.0603611434771964</v>
+      </c>
+      <c r="D8">
+        <v>-0.0450732553461564</v>
+      </c>
+      <c r="E8">
+        <v>-0.08909125055446876</v>
+      </c>
+      <c r="F8">
+        <v>-0.03805455660640496</v>
+      </c>
+      <c r="G8">
+        <v>-0.02417063119700952</v>
+      </c>
+      <c r="H8">
+        <v>0.1282873269076689</v>
+      </c>
+      <c r="I8">
+        <v>0.1212598692035721</v>
+      </c>
+      <c r="J8">
+        <v>0.1058540312494356</v>
+      </c>
+      <c r="K8">
+        <v>-0.05658168174073442</v>
+      </c>
+      <c r="L8">
+        <v>0.1132946341686296</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.1840623536950142</v>
+      </c>
+      <c r="C9">
+        <v>-0.1560124906602078</v>
+      </c>
+      <c r="D9">
+        <v>-0.101594880216469</v>
+      </c>
+      <c r="E9">
+        <v>-0.203594743654703</v>
+      </c>
+      <c r="F9">
+        <v>-0.1389230282292082</v>
+      </c>
+      <c r="G9">
+        <v>-0.05789530991566538</v>
+      </c>
+      <c r="H9">
+        <v>0.2583831785977115</v>
+      </c>
+      <c r="I9">
+        <v>0.2049203741188097</v>
+      </c>
+      <c r="J9">
+        <v>0.1874949215599418</v>
+      </c>
+      <c r="K9">
+        <v>0.6952134700908562</v>
+      </c>
+      <c r="L9">
+        <v>-0.03933634730655242</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.03427207253121285</v>
+      </c>
+      <c r="C10">
+        <v>-0.02754140619176013</v>
+      </c>
+      <c r="D10">
+        <v>-0.02116121427778034</v>
+      </c>
+      <c r="E10">
+        <v>-0.02726931402496868</v>
+      </c>
+      <c r="F10">
+        <v>-0.02501909350911097</v>
+      </c>
+      <c r="G10">
+        <v>-0.02140715910378432</v>
+      </c>
+      <c r="H10">
+        <v>0.06344958680013879</v>
+      </c>
+      <c r="I10">
+        <v>0.06647463928339785</v>
+      </c>
+      <c r="J10">
+        <v>0.08871563989231124</v>
+      </c>
+      <c r="K10">
+        <v>0.6072215163922258</v>
+      </c>
+      <c r="L10">
+        <v>0.2451217516002227</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.2021213168812237</v>
+      </c>
+      <c r="C11">
+        <v>-0.1181966947062183</v>
+      </c>
+      <c r="D11">
+        <v>-0.08573470975491465</v>
+      </c>
+      <c r="E11">
+        <v>-0.2145929795707636</v>
+      </c>
+      <c r="F11">
+        <v>-0.07260556673407506</v>
+      </c>
+      <c r="G11">
+        <v>-0.05581650742250333</v>
+      </c>
+      <c r="H11">
+        <v>0.2543997805093053</v>
+      </c>
+      <c r="I11">
+        <v>0.2028430555714727</v>
+      </c>
+      <c r="J11">
+        <v>0.1761900513569377</v>
+      </c>
+      <c r="K11">
+        <v>0.169561890156063</v>
+      </c>
+      <c r="L11">
+        <v>0.1029616280628966</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.01181101191390239</v>
+      </c>
+      <c r="C12">
+        <v>-0.002491679099769701</v>
+      </c>
+      <c r="D12">
+        <v>0.002012850783581945</v>
+      </c>
+      <c r="E12">
+        <v>-0.01700451836314806</v>
+      </c>
+      <c r="F12">
+        <v>-0.0140028919809676</v>
+      </c>
+      <c r="G12">
+        <v>-0.002545732566629821</v>
+      </c>
+      <c r="H12">
+        <v>0.06827971397792139</v>
+      </c>
+      <c r="I12">
+        <v>0.08393235648631585</v>
+      </c>
+      <c r="J12">
+        <v>0.08663777629945897</v>
+      </c>
+      <c r="K12">
+        <v>-0.5780752541893855</v>
+      </c>
+      <c r="L12">
+        <v>-0.933189351651714</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.2002302663065335</v>
+      </c>
+      <c r="C13">
+        <v>-0.1050878705241158</v>
+      </c>
+      <c r="D13">
+        <v>-0.06753726699673146</v>
+      </c>
+      <c r="E13">
+        <v>-0.1743695877168185</v>
+      </c>
+      <c r="F13">
+        <v>-0.07632554849196653</v>
+      </c>
+      <c r="G13">
+        <v>-0.0462475236842439</v>
+      </c>
+      <c r="H13">
+        <v>0.1232019958200636</v>
+      </c>
+      <c r="I13">
+        <v>0.1368647795342624</v>
+      </c>
+      <c r="J13">
+        <v>0.135372746499455</v>
+      </c>
+      <c r="K13">
+        <v>0.05898714580852053</v>
+      </c>
+      <c r="L13">
+        <v>-0.03409900930716685</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.1699694953227603</v>
+      </c>
+      <c r="C14">
+        <v>-0.1849500750176975</v>
+      </c>
+      <c r="D14">
+        <v>-0.12685736305524</v>
+      </c>
+      <c r="E14">
+        <v>-0.1391204089558311</v>
+      </c>
+      <c r="F14">
+        <v>-0.1622932210546761</v>
+      </c>
+      <c r="G14">
+        <v>-0.09082455043187521</v>
+      </c>
+      <c r="H14">
+        <v>0.1909190617430783</v>
+      </c>
+      <c r="I14">
+        <v>0.1609155611564697</v>
+      </c>
+      <c r="J14">
+        <v>0.1594352125936405</v>
+      </c>
+      <c r="K14">
+        <v>1.178036481936421</v>
+      </c>
+      <c r="L14">
+        <v>0.06948900972774023</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.02478154765843911</v>
+      </c>
+      <c r="C15">
+        <v>0.001206173219410927</v>
+      </c>
+      <c r="D15">
+        <v>-0.002939202738433384</v>
+      </c>
+      <c r="E15">
+        <v>0.02352083856600728</v>
+      </c>
+      <c r="F15">
+        <v>-0.004963497153811662</v>
+      </c>
+      <c r="G15">
+        <v>-0.01251076863433212</v>
+      </c>
+      <c r="H15">
+        <v>0.08784377061926861</v>
+      </c>
+      <c r="I15">
+        <v>0.1007106638580909</v>
+      </c>
+      <c r="J15">
+        <v>0.1037506750459864</v>
+      </c>
+      <c r="K15">
+        <v>-0.9026555374155434</v>
+      </c>
+      <c r="L15">
+        <v>-0.4531579225358739</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.3050378203079276</v>
+      </c>
+      <c r="C16">
+        <v>0.1635222766928393</v>
+      </c>
+      <c r="D16">
+        <v>0.1011507939722125</v>
+      </c>
+      <c r="E16">
+        <v>0.2055158189230124</v>
+      </c>
+      <c r="F16">
+        <v>0.1089284635353827</v>
+      </c>
+      <c r="G16">
+        <v>0.05545454246805324</v>
+      </c>
+      <c r="H16">
+        <v>0.2790168496564525</v>
+      </c>
+      <c r="I16">
+        <v>0.2486669873108497</v>
+      </c>
+      <c r="J16">
+        <v>0.2292579837211773</v>
+      </c>
+      <c r="K16">
+        <v>0.0812409019754429</v>
+      </c>
+      <c r="L16">
+        <v>-0.0733325500327669</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.3033282974754362</v>
+      </c>
+      <c r="C17">
+        <v>0.3041745959073626</v>
+      </c>
+      <c r="D17">
+        <v>0.2104308757712106</v>
+      </c>
+      <c r="E17">
+        <v>0.2890936873141055</v>
+      </c>
+      <c r="F17">
+        <v>0.259876357525325</v>
+      </c>
+      <c r="G17">
+        <v>0.1680630396295451</v>
+      </c>
+      <c r="H17">
+        <v>0.1664672655780617</v>
+      </c>
+      <c r="I17">
+        <v>0.2280419046526608</v>
+      </c>
+      <c r="J17">
+        <v>0.2334801939444954</v>
+      </c>
+      <c r="K17">
+        <v>1.00563588312307</v>
+      </c>
+      <c r="L17">
+        <v>0.0816987662037893</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.01143706824451143</v>
+      </c>
+      <c r="C18">
+        <v>0.006167192416329919</v>
+      </c>
+      <c r="D18">
+        <v>0.003893157784584756</v>
+      </c>
+      <c r="E18">
+        <v>0.007642465168254064</v>
+      </c>
+      <c r="F18">
+        <v>0.002243257795599224</v>
+      </c>
+      <c r="G18">
+        <v>-0.002080062418320927</v>
+      </c>
+      <c r="H18">
+        <v>0.0566397507473512</v>
+      </c>
+      <c r="I18">
+        <v>0.08353042037543852</v>
+      </c>
+      <c r="J18">
+        <v>0.08992597396799108</v>
+      </c>
+      <c r="K18">
+        <v>0.07845687102365762</v>
+      </c>
+      <c r="L18">
+        <v>-0.0572621816102092</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.1234036596244225</v>
+      </c>
+      <c r="C19">
+        <v>-0.05598329568995555</v>
+      </c>
+      <c r="D19">
+        <v>-0.03702309159725422</v>
+      </c>
+      <c r="E19">
+        <v>-0.09316344114695774</v>
+      </c>
+      <c r="F19">
+        <v>-0.03097249886558649</v>
+      </c>
+      <c r="G19">
+        <v>-0.02300300532137964</v>
+      </c>
+      <c r="H19">
+        <v>0.1057643835226385</v>
+      </c>
+      <c r="I19">
+        <v>0.108242021981363</v>
+      </c>
+      <c r="J19">
+        <v>0.1098691889303778</v>
+      </c>
+      <c r="K19">
+        <v>-0.09268013833074323</v>
+      </c>
+      <c r="L19">
+        <v>-0.007271393659469869</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.2157202954065784</v>
+      </c>
+      <c r="C20">
+        <v>-0.169104964467074</v>
+      </c>
+      <c r="D20">
+        <v>-0.1085283613862131</v>
+      </c>
+      <c r="E20">
+        <v>-0.21419440536691</v>
+      </c>
+      <c r="F20">
+        <v>-0.1151630387758714</v>
+      </c>
+      <c r="G20">
+        <v>-0.06219899821096564</v>
+      </c>
+      <c r="H20">
+        <v>0.3408843465823906</v>
+      </c>
+      <c r="I20">
+        <v>0.2543300713051211</v>
+      </c>
+      <c r="J20">
+        <v>0.2263060770035031</v>
+      </c>
+      <c r="K20">
+        <v>0.5720540081397427</v>
+      </c>
+      <c r="L20">
+        <v>-0.05301804460704747</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.01451081016105681</v>
+      </c>
+      <c r="C21">
+        <v>-0.0001023942723252216</v>
+      </c>
+      <c r="D21">
+        <v>0.00420186625044826</v>
+      </c>
+      <c r="E21">
+        <v>0.01149303014198261</v>
+      </c>
+      <c r="F21">
+        <v>-0.0136370353248271</v>
+      </c>
+      <c r="G21">
+        <v>-0.007757024030302374</v>
+      </c>
+      <c r="H21">
+        <v>0.0835321806804141</v>
+      </c>
+      <c r="I21">
+        <v>0.07144001441690827</v>
+      </c>
+      <c r="J21">
+        <v>0.0883209293465181</v>
+      </c>
+      <c r="K21">
+        <v>-1.014112826394769</v>
+      </c>
+      <c r="L21">
+        <v>0.882816820963927</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.272205891914453</v>
+      </c>
+      <c r="C22">
+        <v>0.1420826328112529</v>
+      </c>
+      <c r="D22">
+        <v>0.08947269986806235</v>
+      </c>
+      <c r="E22">
+        <v>0.1761890131155716</v>
+      </c>
+      <c r="F22">
+        <v>0.084404685154429</v>
+      </c>
+      <c r="G22">
+        <v>0.04360177273797772</v>
+      </c>
+      <c r="H22">
+        <v>0.2506290859270097</v>
+      </c>
+      <c r="I22">
+        <v>0.2259074910668071</v>
+      </c>
+      <c r="J22">
+        <v>0.2006841173154703</v>
+      </c>
+      <c r="K22">
+        <v>0.05330821481857257</v>
+      </c>
+      <c r="L22">
+        <v>-0.05406054439972214</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-0.004469814972575335</v>
+      </c>
+      <c r="C23">
+        <v>-0.0009771910638910145</v>
+      </c>
+      <c r="D23">
+        <v>0.001611096359789518</v>
+      </c>
+      <c r="E23">
+        <v>-0.004688996080364771</v>
+      </c>
+      <c r="F23">
+        <v>-0.006088289165585799</v>
+      </c>
+      <c r="G23">
+        <v>-0.01047973172722277</v>
+      </c>
+      <c r="H23">
+        <v>0.1210349568122356</v>
+      </c>
+      <c r="I23">
+        <v>0.1098529128895572</v>
+      </c>
+      <c r="J23">
+        <v>0.1066268473911256</v>
+      </c>
+      <c r="K23">
+        <v>-0.5627599487287066</v>
+      </c>
+      <c r="L23">
+        <v>-1.518557535109734</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.1348774530404785</v>
+      </c>
+      <c r="C24">
+        <v>0.06520381903395156</v>
+      </c>
+      <c r="D24">
+        <v>0.04430769030423214</v>
+      </c>
+      <c r="E24">
+        <v>0.1375865813747313</v>
+      </c>
+      <c r="F24">
+        <v>0.05753871304267625</v>
+      </c>
+      <c r="G24">
+        <v>0.03348551990480453</v>
+      </c>
+      <c r="H24">
+        <v>0.1363490414567009</v>
+      </c>
+      <c r="I24">
+        <v>0.1461443898773171</v>
+      </c>
+      <c r="J24">
+        <v>0.1351389984192467</v>
+      </c>
+      <c r="K24">
+        <v>-0.03313982338644759</v>
+      </c>
+      <c r="L24">
+        <v>0.01864976530983564</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.3724246491639555</v>
+      </c>
+      <c r="C25">
+        <v>0.2536510511022169</v>
+      </c>
+      <c r="D25">
+        <v>0.1676107624106195</v>
+      </c>
+      <c r="E25">
+        <v>0.3399642848085613</v>
+      </c>
+      <c r="F25">
+        <v>0.2230015645068107</v>
+      </c>
+      <c r="G25">
+        <v>0.1305532469708974</v>
+      </c>
+      <c r="H25">
+        <v>0.2100622941653529</v>
+      </c>
+      <c r="I25">
+        <v>0.2128261625410019</v>
+      </c>
+      <c r="J25">
+        <v>0.2232028009175477</v>
+      </c>
+      <c r="K25">
+        <v>0.3621603815517062</v>
+      </c>
+      <c r="L25">
+        <v>-0.01200193108219202</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-0.06418648650166069</v>
+      </c>
+      <c r="C26">
+        <v>-0.0253138129651473</v>
+      </c>
+      <c r="D26">
+        <v>-0.01708293081849771</v>
+      </c>
+      <c r="E26">
+        <v>-0.04885814563705526</v>
+      </c>
+      <c r="F26">
+        <v>-0.01703837530136449</v>
+      </c>
+      <c r="G26">
+        <v>-0.01124814683948114</v>
+      </c>
+      <c r="H26">
+        <v>0.08880319721034638</v>
+      </c>
+      <c r="I26">
+        <v>0.09694932696176327</v>
+      </c>
+      <c r="J26">
+        <v>0.09806748562564654</v>
+      </c>
+      <c r="K26">
+        <v>-0.2112416695532208</v>
+      </c>
+      <c r="L26">
+        <v>0.0096775280756716</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-0.2361324131743816</v>
+      </c>
+      <c r="C27">
+        <v>-0.1501594498380211</v>
+      </c>
+      <c r="D27">
+        <v>-0.09558667970155872</v>
+      </c>
+      <c r="E27">
+        <v>-0.2288766292082511</v>
+      </c>
+      <c r="F27">
+        <v>-0.1121838017139151</v>
+      </c>
+      <c r="G27">
+        <v>-0.05012624217911876</v>
+      </c>
+      <c r="H27">
+        <v>0.2376817336900212</v>
+      </c>
+      <c r="I27">
+        <v>0.198330868204726</v>
+      </c>
+      <c r="J27">
+        <v>0.1864674921035181</v>
+      </c>
+      <c r="K27">
+        <v>0.271824124603595</v>
+      </c>
+      <c r="L27">
+        <v>-0.05742058190610613</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-0.03528296754924695</v>
+      </c>
+      <c r="C28">
+        <v>-0.01879946202627188</v>
+      </c>
+      <c r="D28">
+        <v>-0.01724154040149873</v>
+      </c>
+      <c r="E28">
+        <v>-0.05411513055537454</v>
+      </c>
+      <c r="F28">
+        <v>-0.01181940698455726</v>
+      </c>
+      <c r="G28">
+        <v>-0.009701172104447778</v>
+      </c>
+      <c r="H28">
+        <v>0.1225702770944381</v>
+      </c>
+      <c r="I28">
+        <v>0.1125749312254911</v>
+      </c>
+      <c r="J28">
+        <v>0.1125983707325052</v>
+      </c>
+      <c r="K28">
+        <v>0.06563950438874688</v>
+      </c>
+      <c r="L28">
+        <v>0.4003545657614032</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-0.0772995944084689</v>
+      </c>
+      <c r="C29">
+        <v>-0.05629128097885792</v>
+      </c>
+      <c r="D29">
+        <v>-0.03829950615367088</v>
+      </c>
+      <c r="E29">
+        <v>-0.08362407712937586</v>
+      </c>
+      <c r="F29">
+        <v>-0.06531338147324811</v>
+      </c>
+      <c r="G29">
+        <v>-0.04646199522392028</v>
+      </c>
+      <c r="H29">
+        <v>0.09763067704961208</v>
+      </c>
+      <c r="I29">
+        <v>0.1122576032482256</v>
+      </c>
+      <c r="J29">
+        <v>0.1110040631919345</v>
+      </c>
+      <c r="K29">
+        <v>0.4564444072345789</v>
+      </c>
+      <c r="L29">
+        <v>0.02996078467189311</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.01016743338609018</v>
+      </c>
+      <c r="C30">
+        <v>0.00664037144540645</v>
+      </c>
+      <c r="D30">
+        <v>0.004222295528216532</v>
+      </c>
+      <c r="E30">
+        <v>0.006513079964473478</v>
+      </c>
+      <c r="F30">
+        <v>0.005909306877596194</v>
+      </c>
+      <c r="G30">
+        <v>-0.00119547766567929</v>
+      </c>
+      <c r="H30">
+        <v>0.1212326339361407</v>
+      </c>
+      <c r="I30">
+        <v>0.1094684440224291</v>
+      </c>
+      <c r="J30">
+        <v>0.1044598202492819</v>
+      </c>
+      <c r="K30">
+        <v>0.3062040720111296</v>
+      </c>
+      <c r="L30">
+        <v>-0.06037475563922621</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.01541178536329329</v>
+      </c>
+      <c r="C31">
+        <v>0.01278960937469173</v>
+      </c>
+      <c r="D31">
+        <v>0.009564176084702062</v>
+      </c>
+      <c r="E31">
+        <v>0.01532401627907218</v>
+      </c>
+      <c r="F31">
+        <v>0.009544153812888215</v>
+      </c>
+      <c r="G31">
+        <v>0.006602696973939143</v>
+      </c>
+      <c r="H31">
+        <v>0.1152869931360269</v>
+      </c>
+      <c r="I31">
+        <v>0.1177395787226872</v>
+      </c>
+      <c r="J31">
+        <v>0.1111390719908839</v>
+      </c>
+      <c r="K31">
+        <v>0.6597180759022415</v>
+      </c>
+      <c r="L31">
+        <v>0.2020083612206139</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-0.004786863424084826</v>
+      </c>
+      <c r="C32">
+        <v>0.005312460969604232</v>
+      </c>
+      <c r="D32">
+        <v>0.00693078510843288</v>
+      </c>
+      <c r="E32">
+        <v>-0.01654436707631763</v>
+      </c>
+      <c r="F32">
+        <v>0.001333277510261868</v>
+      </c>
+      <c r="G32">
+        <v>0.006513079964473478</v>
+      </c>
+      <c r="H32">
+        <v>0.1028524020139214</v>
+      </c>
+      <c r="I32">
+        <v>0.1091773467484561</v>
+      </c>
+      <c r="J32">
+        <v>0.1129612759581043</v>
+      </c>
+      <c r="K32">
+        <v>-3.219599975581042</v>
+      </c>
+      <c r="L32">
+        <v>-2.124028301065229</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.01031486400122202</v>
+      </c>
+      <c r="C33">
+        <v>0.002474173422727632</v>
+      </c>
+      <c r="D33">
+        <v>0.008250374359644534</v>
+      </c>
+      <c r="E33">
+        <v>0.03510074209444795</v>
+      </c>
+      <c r="F33">
+        <v>0.0167639445983323</v>
+      </c>
+      <c r="G33">
+        <v>0.01837496195902205</v>
+      </c>
+      <c r="H33">
+        <v>0.1538608923568693</v>
+      </c>
+      <c r="I33">
+        <v>0.121834125602125</v>
+      </c>
+      <c r="J33">
+        <v>0.1091465702314939</v>
+      </c>
+      <c r="K33">
+        <v>-0.5354729802237124</v>
+      </c>
+      <c r="L33">
+        <v>1.90884895712104</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.006592740049224425</v>
+      </c>
+      <c r="C34">
+        <v>0.008453802025223217</v>
+      </c>
+      <c r="D34">
+        <v>0.003856060909249582</v>
+      </c>
+      <c r="E34">
+        <v>-0.0134093848741893</v>
+      </c>
+      <c r="F34">
+        <v>0.008321895088487088</v>
+      </c>
+      <c r="G34">
+        <v>0.01232153025870267</v>
+      </c>
+      <c r="H34">
+        <v>0.09715082647083008</v>
+      </c>
+      <c r="I34">
+        <v>0.1280441657371687</v>
+      </c>
+      <c r="J34">
+        <v>0.1138386333614426</v>
+      </c>
+      <c r="K34">
+        <v>1.564579207462527</v>
+      </c>
+      <c r="L34">
+        <v>-0.8377898910160136</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-3.600429159169103e-08</v>
+      </c>
+      <c r="C2">
+        <v>-2.681604111749752e-08</v>
+      </c>
+      <c r="D2">
+        <v>-1.846495376644181e-08</v>
+      </c>
+      <c r="E2">
+        <v>-8.079223334789276e-08</v>
+      </c>
+      <c r="F2">
+        <v>1.164153218269348e-09</v>
+      </c>
+      <c r="G2">
+        <v>1.396983861923218e-08</v>
+      </c>
+      <c r="H2">
+        <v>4.576273703490231e-07</v>
+      </c>
+      <c r="I2">
+        <v>4.541328696333975e-07</v>
+      </c>
+      <c r="J2">
+        <v>4.220699409216602e-07</v>
+      </c>
+      <c r="K2">
+        <v>0.4896024852596209</v>
+      </c>
+      <c r="L2">
+        <v>0.04896024852596201</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-4.274770617485046e-09</v>
+      </c>
+      <c r="C3">
+        <v>-2.029660794109401e-08</v>
+      </c>
+      <c r="D3">
+        <v>-1.940114950565131e-08</v>
+      </c>
+      <c r="E3">
+        <v>-7.450580596923828e-09</v>
+      </c>
+      <c r="F3">
+        <v>-5.005858838558197e-08</v>
+      </c>
+      <c r="G3">
+        <v>-4.016328603029251e-09</v>
+      </c>
+      <c r="H3">
+        <v>8.325587439025521e-07</v>
+      </c>
+      <c r="I3">
+        <v>6.684979542588441e-07</v>
+      </c>
+      <c r="J3">
+        <v>6.03953945441006e-07</v>
+      </c>
+      <c r="K3">
+        <v>8.422508436925968</v>
+      </c>
+      <c r="L3">
+        <v>4.123681062839078</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-1.733275769534065e-08</v>
+      </c>
+      <c r="C4">
+        <v>7.723072342866775e-09</v>
+      </c>
+      <c r="D4">
+        <v>2.632489020090088e-08</v>
+      </c>
+      <c r="E4">
+        <v>2.130400389432907e-08</v>
+      </c>
+      <c r="F4">
+        <v>8.672941476106644e-09</v>
+      </c>
+      <c r="G4">
+        <v>3.806781023740768e-08</v>
+      </c>
+      <c r="H4">
+        <v>4.763177033468162e-07</v>
+      </c>
+      <c r="I4">
+        <v>4.529806769881268e-07</v>
+      </c>
+      <c r="J4">
+        <v>4.446537712989616e-07</v>
+      </c>
+      <c r="K4">
+        <v>-1.89115332696803</v>
+      </c>
+      <c r="L4">
+        <v>-3.6652289862707</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.340773948348394e-08</v>
+      </c>
+      <c r="C5">
+        <v>7.912514300035132e-09</v>
+      </c>
+      <c r="D5">
+        <v>1.622848670746459e-08</v>
+      </c>
+      <c r="E5">
+        <v>9.685754776000977e-08</v>
+      </c>
+      <c r="F5">
+        <v>4.284083843231201e-08</v>
+      </c>
+      <c r="G5">
+        <v>3.073364496231078e-08</v>
+      </c>
+      <c r="H5">
+        <v>8.349836172031314e-07</v>
+      </c>
+      <c r="I5">
+        <v>6.776676504674452e-07</v>
+      </c>
+      <c r="J5">
+        <v>6.053984195622575e-07</v>
+      </c>
+      <c r="K5">
+        <v>-0.5188246185860491</v>
+      </c>
+      <c r="L5">
+        <v>0.981176903551926</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-1.990584412006417e-08</v>
+      </c>
+      <c r="C6">
+        <v>7.017515599727628e-09</v>
+      </c>
+      <c r="D6">
+        <v>-1.206748890659665e-09</v>
+      </c>
+      <c r="E6">
+        <v>8.195638656616211e-08</v>
+      </c>
+      <c r="F6">
+        <v>9.313225746154785e-08</v>
+      </c>
+      <c r="G6">
+        <v>6.51925802230835e-08</v>
+      </c>
+      <c r="H6">
+        <v>9.030430524320685e-07</v>
+      </c>
+      <c r="I6">
+        <v>8.675604586795655e-07</v>
+      </c>
+      <c r="J6">
+        <v>7.575409495585389e-07</v>
+      </c>
+      <c r="K6">
+        <v>-1.678288008384959</v>
+      </c>
+      <c r="L6">
+        <v>0.8707371358278664</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.724089873046158e-08</v>
+      </c>
+      <c r="C7">
+        <v>2.029165604172329e-08</v>
+      </c>
+      <c r="D7">
+        <v>2.303882639929713e-08</v>
+      </c>
+      <c r="E7">
+        <v>4.284083843231201e-08</v>
+      </c>
+      <c r="F7">
+        <v>2.840533852577209e-08</v>
+      </c>
+      <c r="G7">
+        <v>2.514570951461792e-08</v>
+      </c>
+      <c r="H7">
+        <v>4.531493323150944e-07</v>
+      </c>
+      <c r="I7">
+        <v>4.530002534056282e-07</v>
+      </c>
+      <c r="J7">
+        <v>4.501427076117272e-07</v>
+      </c>
+      <c r="K7">
+        <v>1.353897712521398</v>
+      </c>
+      <c r="L7">
+        <v>1.65496982265964</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1.963238829892932e-08</v>
+      </c>
+      <c r="C8">
+        <v>-1.195744784233874e-09</v>
+      </c>
+      <c r="D8">
+        <v>6.983641261505754e-09</v>
+      </c>
+      <c r="E8">
+        <v>-3.026798367500305e-08</v>
+      </c>
+      <c r="F8">
+        <v>3.958120942115784e-09</v>
+      </c>
+      <c r="G8">
+        <v>7.32688931748271e-09</v>
+      </c>
+      <c r="H8">
+        <v>2.99100105066431e-07</v>
+      </c>
+      <c r="I8">
+        <v>3.834293392695765e-07</v>
+      </c>
+      <c r="J8">
+        <v>4.081200761802473e-07</v>
+      </c>
+      <c r="K8">
+        <v>-0.8781865185195949</v>
+      </c>
+      <c r="L8">
+        <v>-1.18897471859081</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.758562517638253e-08</v>
+      </c>
+      <c r="C9">
+        <v>2.873716520356574e-08</v>
+      </c>
+      <c r="D9">
+        <v>2.489251215354402e-08</v>
+      </c>
+      <c r="E9">
+        <v>1.024454832077026e-07</v>
+      </c>
+      <c r="F9">
+        <v>1.117587089538574e-08</v>
+      </c>
+      <c r="G9">
+        <v>2.514570951461792e-08</v>
+      </c>
+      <c r="H9">
+        <v>3.863828507319696e-07</v>
+      </c>
+      <c r="I9">
+        <v>3.478673559808133e-07</v>
+      </c>
+      <c r="J9">
+        <v>3.855665318634247e-07</v>
+      </c>
+      <c r="K9">
+        <v>-0.2530415686449289</v>
+      </c>
+      <c r="L9">
+        <v>0.2222176942090272</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-5.384208634495735e-08</v>
+      </c>
+      <c r="C10">
+        <v>-4.11250091406821e-08</v>
+      </c>
+      <c r="D10">
+        <v>-9.069193957226448e-09</v>
+      </c>
+      <c r="E10">
+        <v>-6.7870132625103e-08</v>
+      </c>
+      <c r="F10">
+        <v>-4.167668521404266e-08</v>
+      </c>
+      <c r="G10">
+        <v>2.328306436538697e-10</v>
+      </c>
+      <c r="H10">
+        <v>3.885523355896667e-07</v>
+      </c>
+      <c r="I10">
+        <v>4.148559009389265e-07</v>
+      </c>
+      <c r="J10">
+        <v>4.169179555819114e-07</v>
+      </c>
+      <c r="K10">
+        <v>0.5228918918918919</v>
+      </c>
+      <c r="L10">
+        <v>-1.010620031796502</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.978006651734605e-08</v>
+      </c>
+      <c r="C11">
+        <v>-1.203100991380565e-08</v>
+      </c>
+      <c r="D11">
+        <v>-1.733449033437003e-08</v>
+      </c>
+      <c r="E11">
+        <v>1.676380634307861e-08</v>
+      </c>
+      <c r="F11">
+        <v>-9.080395102500916e-09</v>
+      </c>
+      <c r="G11">
+        <v>-1.094304025173187e-08</v>
+      </c>
+      <c r="H11">
+        <v>2.563858129152251e-07</v>
+      </c>
+      <c r="I11">
+        <v>3.310231395860893e-07</v>
+      </c>
+      <c r="J11">
+        <v>3.704115932215223e-07</v>
+      </c>
+      <c r="K11">
+        <v>-1.807990801954585</v>
+      </c>
+      <c r="L11">
+        <v>-0.9453837309571715</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-4.585479687461082e-08</v>
+      </c>
+      <c r="C12">
+        <v>-1.058846338661295e-08</v>
+      </c>
+      <c r="D12">
+        <v>1.955901863862221e-08</v>
+      </c>
+      <c r="E12">
+        <v>-6.961636245250702e-08</v>
+      </c>
+      <c r="F12">
+        <v>-1.629814505577087e-08</v>
+      </c>
+      <c r="G12">
+        <v>2.421438694000244e-08</v>
+      </c>
+      <c r="H12">
+        <v>4.668280250471748e-07</v>
+      </c>
+      <c r="I12">
+        <v>4.381799447912699e-07</v>
+      </c>
+      <c r="J12">
+        <v>4.442737763154266e-07</v>
+      </c>
+      <c r="K12">
+        <v>-0.5535559745375126</v>
+      </c>
+      <c r="L12">
+        <v>-1.728561917029128</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9.281268598986606e-09</v>
+      </c>
+      <c r="C13">
+        <v>-1.828676413781211e-08</v>
+      </c>
+      <c r="D13">
+        <v>-3.921645417760468e-09</v>
+      </c>
+      <c r="E13">
+        <v>-6.565824151039124e-08</v>
+      </c>
+      <c r="F13">
+        <v>-6.961636245250702e-08</v>
+      </c>
+      <c r="G13">
+        <v>-3.341119736433029e-08</v>
+      </c>
+      <c r="H13">
+        <v>2.681670468708802e-07</v>
+      </c>
+      <c r="I13">
+        <v>3.807503496707166e-07</v>
+      </c>
+      <c r="J13">
+        <v>3.891361468089957e-07</v>
+      </c>
+      <c r="K13">
+        <v>-4.940574274471225</v>
+      </c>
+      <c r="L13">
+        <v>2.734884407279883</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-6.0420704655128e-09</v>
+      </c>
+      <c r="C14">
+        <v>1.657341281181483e-09</v>
+      </c>
+      <c r="D14">
+        <v>-1.423196393813266e-08</v>
+      </c>
+      <c r="E14">
+        <v>-7.916241884231567e-09</v>
+      </c>
+      <c r="F14">
+        <v>-1.30385160446167e-08</v>
+      </c>
+      <c r="G14">
+        <v>-2.700835466384888e-08</v>
+      </c>
+      <c r="H14">
+        <v>2.701178869777746e-07</v>
+      </c>
+      <c r="I14">
+        <v>2.685822090040137e-07</v>
+      </c>
+      <c r="J14">
+        <v>3.476214956301835e-07</v>
+      </c>
+      <c r="K14">
+        <v>-1.536107308241876</v>
+      </c>
+      <c r="L14">
+        <v>7.589252249927053</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-6.085924813341276e-08</v>
+      </c>
+      <c r="C15">
+        <v>-2.156000639185756e-08</v>
+      </c>
+      <c r="D15">
+        <v>-7.983336564920088e-09</v>
+      </c>
+      <c r="E15">
+        <v>-1.016596797853708e-07</v>
+      </c>
+      <c r="F15">
+        <v>-4.004687070846558e-08</v>
+      </c>
+      <c r="G15">
+        <v>-2.804154064506292e-08</v>
+      </c>
+      <c r="H15">
+        <v>4.809412327061536e-07</v>
+      </c>
+      <c r="I15">
+        <v>4.650566478869497e-07</v>
+      </c>
+      <c r="J15">
+        <v>4.445591999824311e-07</v>
+      </c>
+      <c r="K15">
+        <v>-0.3043944963618122</v>
+      </c>
+      <c r="L15">
+        <v>-0.3106149756438327</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.161801393585977e-08</v>
+      </c>
+      <c r="C16">
+        <v>-2.516149218884569e-08</v>
+      </c>
+      <c r="D16">
+        <v>-1.064763425749206e-08</v>
+      </c>
+      <c r="E16">
+        <v>-9.126961231231689e-08</v>
+      </c>
+      <c r="F16">
+        <v>-9.784707799553874e-08</v>
+      </c>
+      <c r="G16">
+        <v>-4.516914486885071e-08</v>
+      </c>
+      <c r="H16">
+        <v>7.9565411931373e-07</v>
+      </c>
+      <c r="I16">
+        <v>6.544695192155665e-07</v>
+      </c>
+      <c r="J16">
+        <v>5.932547679823863e-07</v>
+      </c>
+      <c r="K16">
+        <v>-5.238352137413664</v>
+      </c>
+      <c r="L16">
+        <v>1.594525560633854</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.279139282679794e-07</v>
+      </c>
+      <c r="C17">
+        <v>7.034745067358017e-08</v>
+      </c>
+      <c r="D17">
+        <v>2.60326053811521e-08</v>
+      </c>
+      <c r="E17">
+        <v>8.195638656616211e-08</v>
+      </c>
+      <c r="F17">
+        <v>-2.793967723846436e-08</v>
+      </c>
+      <c r="G17">
+        <v>-6.220216164365411e-08</v>
+      </c>
+      <c r="H17">
+        <v>8.304411630668154e-07</v>
+      </c>
+      <c r="I17">
+        <v>8.134541979345285e-07</v>
+      </c>
+      <c r="J17">
+        <v>7.203830445839235e-07</v>
+      </c>
+      <c r="K17">
+        <v>0.0908268090361517</v>
+      </c>
+      <c r="L17">
+        <v>-0.475782809248988</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-3.643130185082555e-08</v>
+      </c>
+      <c r="C18">
+        <v>-1.16217709339505e-08</v>
+      </c>
+      <c r="D18">
+        <v>2.269443580428886e-09</v>
+      </c>
+      <c r="E18">
+        <v>-7.794005796313286e-08</v>
+      </c>
+      <c r="F18">
+        <v>-2.62516550719738e-08</v>
+      </c>
+      <c r="G18">
+        <v>-9.371433407068253e-09</v>
+      </c>
+      <c r="H18">
+        <v>4.41841995198194e-07</v>
+      </c>
+      <c r="I18">
+        <v>4.47545242558384e-07</v>
+      </c>
+      <c r="J18">
+        <v>4.652465955371143e-07</v>
+      </c>
+      <c r="K18">
+        <v>-0.3486369673091921</v>
+      </c>
+      <c r="L18">
+        <v>-0.8174150892532253</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-3.273806322624187e-08</v>
+      </c>
+      <c r="C19">
+        <v>-3.457549537777605e-08</v>
+      </c>
+      <c r="D19">
+        <v>-1.866053503138096e-08</v>
+      </c>
+      <c r="E19">
+        <v>5.122274160385132e-09</v>
+      </c>
+      <c r="F19">
+        <v>-1.117587089538574e-08</v>
+      </c>
+      <c r="G19">
+        <v>-1.117587089538574e-08</v>
+      </c>
+      <c r="H19">
+        <v>3.873203565803686e-07</v>
+      </c>
+      <c r="I19">
+        <v>4.143042467747606e-07</v>
+      </c>
+      <c r="J19">
+        <v>4.278831895545964e-07</v>
+      </c>
+      <c r="K19">
+        <v>1.112811762841953</v>
+      </c>
+      <c r="L19">
+        <v>-0.3879673181832146</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-6.760848630772959e-08</v>
+      </c>
+      <c r="C20">
+        <v>-5.017327476698573e-08</v>
+      </c>
+      <c r="D20">
+        <v>-4.56229526093168e-08</v>
+      </c>
+      <c r="E20">
+        <v>-5.587935447692871e-08</v>
+      </c>
+      <c r="F20">
+        <v>-3.259629011154175e-08</v>
+      </c>
+      <c r="G20">
+        <v>-3.67872416973114e-08</v>
+      </c>
+      <c r="H20">
+        <v>3.16091737361877e-07</v>
+      </c>
+      <c r="I20">
+        <v>3.530570810507581e-07</v>
+      </c>
+      <c r="J20">
+        <v>3.840436690606941e-07</v>
+      </c>
+      <c r="K20">
+        <v>0.4842300872885978</v>
+      </c>
+      <c r="L20">
+        <v>0.5388569370567375</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>6.143501637005581e-10</v>
+      </c>
+      <c r="C21">
+        <v>4.521504493977004e-08</v>
+      </c>
+      <c r="D21">
+        <v>1.738166241374838e-08</v>
+      </c>
+      <c r="E21">
+        <v>5.587935447692871e-09</v>
+      </c>
+      <c r="F21">
+        <v>4.423782229423524e-08</v>
+      </c>
+      <c r="G21">
+        <v>8.149072527885437e-09</v>
+      </c>
+      <c r="H21">
+        <v>4.827308707323992e-07</v>
+      </c>
+      <c r="I21">
+        <v>4.323319906601664e-07</v>
+      </c>
+      <c r="J21">
+        <v>3.99790201458284e-07</v>
+      </c>
+      <c r="K21">
+        <v>146.922312382739</v>
+      </c>
+      <c r="L21">
+        <v>-60.98553553691634</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>9.58985621386236e-09</v>
+      </c>
+      <c r="C22">
+        <v>5.102103188781458e-09</v>
+      </c>
+      <c r="D22">
+        <v>3.330066063077442e-08</v>
+      </c>
+      <c r="E22">
+        <v>7.450580596923828e-09</v>
+      </c>
+      <c r="F22">
+        <v>6.51925802230835e-09</v>
+      </c>
+      <c r="G22">
+        <v>3.539025783538818e-08</v>
+      </c>
+      <c r="H22">
+        <v>7.575252508485607e-07</v>
+      </c>
+      <c r="I22">
+        <v>6.336007350727116e-07</v>
+      </c>
+      <c r="J22">
+        <v>5.613579746512059e-07</v>
+      </c>
+      <c r="K22">
+        <v>0.06406250000000006</v>
+      </c>
+      <c r="L22">
+        <v>9.412210637019223</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8.010629601046151e-08</v>
+      </c>
+      <c r="C23">
+        <v>2.820359120104353e-08</v>
+      </c>
+      <c r="D23">
+        <v>5.130061337243449e-09</v>
+      </c>
+      <c r="E23">
+        <v>1.346925273537636e-07</v>
+      </c>
+      <c r="F23">
+        <v>6.609479896724224e-08</v>
+      </c>
+      <c r="G23">
+        <v>2.64262780547142e-08</v>
+      </c>
+      <c r="H23">
+        <v>4.056766284983216e-07</v>
+      </c>
+      <c r="I23">
+        <v>3.98356422439569e-07</v>
+      </c>
+      <c r="J23">
+        <v>4.086478121848299e-07</v>
+      </c>
+      <c r="K23">
+        <v>-0.2958458297120549</v>
+      </c>
+      <c r="L23">
+        <v>-0.5120321427044894</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2.62819230556488e-08</v>
+      </c>
+      <c r="C24">
+        <v>5.346056682491066e-08</v>
+      </c>
+      <c r="D24">
+        <v>2.757146352163737e-08</v>
+      </c>
+      <c r="E24">
+        <v>3.725290298461914e-09</v>
+      </c>
+      <c r="F24">
+        <v>1.10710971057415e-07</v>
+      </c>
+      <c r="G24">
+        <v>6.426125764846803e-08</v>
+      </c>
+      <c r="H24">
+        <v>7.136973838300402e-07</v>
+      </c>
+      <c r="I24">
+        <v>5.781908874856023e-07</v>
+      </c>
+      <c r="J24">
+        <v>5.222473359047109e-07</v>
+      </c>
+      <c r="K24">
+        <v>3.047961743166438</v>
+      </c>
+      <c r="L24">
+        <v>-0.9017267708376759</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-4.437478149638457e-08</v>
+      </c>
+      <c r="C25">
+        <v>-9.39621488646706e-09</v>
+      </c>
+      <c r="D25">
+        <v>2.063423284868661e-08</v>
+      </c>
+      <c r="E25">
+        <v>5.029141902923584e-08</v>
+      </c>
+      <c r="F25">
+        <v>2.421438694000244e-08</v>
+      </c>
+      <c r="G25">
+        <v>7.35744833946228e-08</v>
+      </c>
+      <c r="H25">
+        <v>8.351193970105294e-07</v>
+      </c>
+      <c r="I25">
+        <v>7.762615689579063e-07</v>
+      </c>
+      <c r="J25">
+        <v>6.755607587022617e-07</v>
+      </c>
+      <c r="K25">
+        <v>-0.5922716049382716</v>
+      </c>
+      <c r="L25">
+        <v>-1.805221193415638</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>5.797886446413427e-08</v>
+      </c>
+      <c r="C26">
+        <v>3.122754090779869e-08</v>
+      </c>
+      <c r="D26">
+        <v>2.095522907692328e-08</v>
+      </c>
+      <c r="E26">
+        <v>1.359730958938598e-07</v>
+      </c>
+      <c r="F26">
+        <v>2.479646354913712e-08</v>
+      </c>
+      <c r="G26">
+        <v>1.30385160446167e-08</v>
+      </c>
+      <c r="H26">
+        <v>4.32103785260046e-07</v>
+      </c>
+      <c r="I26">
+        <v>4.764854226681132e-07</v>
+      </c>
+      <c r="J26">
+        <v>4.460700421226879e-07</v>
+      </c>
+      <c r="K26">
+        <v>0.0817278032824811</v>
+      </c>
+      <c r="L26">
+        <v>0.008818978422855263</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-5.621718717556373e-08</v>
+      </c>
+      <c r="C27">
+        <v>5.995675811333022e-10</v>
+      </c>
+      <c r="D27">
+        <v>1.983730204510274e-09</v>
+      </c>
+      <c r="E27">
+        <v>-5.029141902923585e-08</v>
+      </c>
+      <c r="F27">
+        <v>7.450580596923828e-09</v>
+      </c>
+      <c r="G27">
+        <v>7.450580596923828e-09</v>
+      </c>
+      <c r="H27">
+        <v>3.446059463407613e-07</v>
+      </c>
+      <c r="I27">
+        <v>3.938088231173245e-07</v>
+      </c>
+      <c r="J27">
+        <v>4.382041043495269e-07</v>
+      </c>
+      <c r="K27">
+        <v>-1.031336987442451</v>
+      </c>
+      <c r="L27">
+        <v>-0.08428890642764328</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-7.400362222802405e-09</v>
+      </c>
+      <c r="C28">
+        <v>-2.243848261879942e-09</v>
+      </c>
+      <c r="D28">
+        <v>1.284767125473648e-08</v>
+      </c>
+      <c r="E28">
+        <v>-2.514570951461792e-08</v>
+      </c>
+      <c r="F28">
+        <v>-2.048909664154053e-08</v>
+      </c>
+      <c r="G28">
+        <v>2.60770320892334e-08</v>
+      </c>
+      <c r="H28">
+        <v>4.594974241138323e-07</v>
+      </c>
+      <c r="I28">
+        <v>4.417743082495864e-07</v>
+      </c>
+      <c r="J28">
+        <v>4.616698335021189e-07</v>
+      </c>
+      <c r="K28">
+        <v>-0.3935842072794571</v>
+      </c>
+      <c r="L28">
+        <v>-5.855058300401292</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2.581127590001237e-10</v>
+      </c>
+      <c r="C29">
+        <v>-3.628277530272802e-09</v>
+      </c>
+      <c r="D29">
+        <v>-1.426375849117147e-09</v>
+      </c>
+      <c r="E29">
+        <v>1.676380634307861e-08</v>
+      </c>
+      <c r="F29">
+        <v>-5.587935447692871e-09</v>
+      </c>
+      <c r="G29">
+        <v>-1.30385160446167e-08</v>
+      </c>
+      <c r="H29">
+        <v>5.044878782846166e-07</v>
+      </c>
+      <c r="I29">
+        <v>4.80986791257766e-07</v>
+      </c>
+      <c r="J29">
+        <v>4.623600723965876e-07</v>
+      </c>
+      <c r="K29">
+        <v>-28.67104381615966</v>
+      </c>
+      <c r="L29">
+        <v>11.28447005225778</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-9.557469656654433e-08</v>
+      </c>
+      <c r="C30">
+        <v>-7.699389814161787e-09</v>
+      </c>
+      <c r="D30">
+        <v>-3.080060279447267e-09</v>
+      </c>
+      <c r="E30">
+        <v>-1.010484993457794e-07</v>
+      </c>
+      <c r="F30">
+        <v>-6.752088665962219e-09</v>
+      </c>
+      <c r="G30">
+        <v>-9.546056389808655e-09</v>
+      </c>
+      <c r="H30">
+        <v>4.257773594756823e-07</v>
+      </c>
+      <c r="I30">
+        <v>4.169550883676929e-07</v>
+      </c>
+      <c r="J30">
+        <v>4.185083032797893e-07</v>
+      </c>
+      <c r="K30">
+        <v>-0.8388822545975639</v>
+      </c>
+      <c r="L30">
+        <v>-0.06443754478146649</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>6.591722237794559e-08</v>
+      </c>
+      <c r="C31">
+        <v>-1.522650044145329e-08</v>
+      </c>
+      <c r="D31">
+        <v>1.667857028879836e-08</v>
+      </c>
+      <c r="E31">
+        <v>3.166496753692627e-08</v>
+      </c>
+      <c r="F31">
+        <v>-4.936009645462036e-08</v>
+      </c>
+      <c r="G31">
+        <v>1.862645149230957e-09</v>
+      </c>
+      <c r="H31">
+        <v>6.506664532052865e-07</v>
+      </c>
+      <c r="I31">
+        <v>5.538797242417432e-07</v>
+      </c>
+      <c r="J31">
+        <v>5.065188537928933e-07</v>
+      </c>
+      <c r="K31">
+        <v>-1.449919962017718</v>
+      </c>
+      <c r="L31">
+        <v>1.216312126723437</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-6.795888490015918e-09</v>
+      </c>
+      <c r="C32">
+        <v>2.956066694396483e-08</v>
+      </c>
+      <c r="D32">
+        <v>-1.242554054969284e-08</v>
+      </c>
+      <c r="E32">
+        <v>-3.329478204250336e-08</v>
+      </c>
+      <c r="F32">
+        <v>1.350417733192444e-08</v>
+      </c>
+      <c r="G32">
+        <v>-4.260800778865814e-08</v>
+      </c>
+      <c r="H32">
+        <v>4.465857903671031e-07</v>
+      </c>
+      <c r="I32">
+        <v>5.57836856138246e-07</v>
+      </c>
+      <c r="J32">
+        <v>5.199606347801654e-07</v>
+      </c>
+      <c r="K32">
+        <v>-9.699573863636363</v>
+      </c>
+      <c r="L32">
+        <v>14.06360576795169</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3.347689710041084e-08</v>
+      </c>
+      <c r="C33">
+        <v>-2.781351285027753e-08</v>
+      </c>
+      <c r="D33">
+        <v>-2.838778080510311e-08</v>
+      </c>
+      <c r="E33">
+        <v>4.190951585769653e-09</v>
+      </c>
+      <c r="F33">
+        <v>-4.190951585769653e-08</v>
+      </c>
+      <c r="G33">
+        <v>-5.122274160385132e-08</v>
+      </c>
+      <c r="H33">
+        <v>4.411273248450344e-07</v>
+      </c>
+      <c r="I33">
+        <v>3.733489026324845e-07</v>
+      </c>
+      <c r="J33">
+        <v>3.6406495149551e-07</v>
+      </c>
+      <c r="K33">
+        <v>-2.643704885893209</v>
+      </c>
+      <c r="L33">
+        <v>-0.8821213790570628</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.421864783647014e-08</v>
+      </c>
+      <c r="C34">
+        <v>2.380033835695295e-08</v>
+      </c>
+      <c r="D34">
+        <v>-1.375685583372585e-08</v>
+      </c>
+      <c r="E34">
+        <v>2.37487256526947e-08</v>
+      </c>
+      <c r="F34">
+        <v>1.722946763038635e-08</v>
+      </c>
+      <c r="G34">
+        <v>-2.700835466384888e-08</v>
+      </c>
+      <c r="H34">
+        <v>4.170497910582159e-07</v>
+      </c>
+      <c r="I34">
+        <v>4.282426485210865e-07</v>
+      </c>
+      <c r="J34">
+        <v>3.883313730271271e-07</v>
+      </c>
+      <c r="K34">
+        <v>2.354436053655133</v>
+      </c>
+      <c r="L34">
+        <v>-6.224434098571199</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>19.5</v>
+      </c>
+      <c r="D3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>247</v>
+      </c>
+      <c r="D6">
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>348.7</v>
+      </c>
+      <c r="D7">
+        <v>352.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>485</v>
+      </c>
+      <c r="D8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>496</v>
+      </c>
+      <c r="D9">
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>587</v>
+      </c>
+      <c r="D10">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>750</v>
+      </c>
+      <c r="D11">
+        <v>753.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>840.7</v>
+      </c>
+      <c r="D12">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>980</v>
+      </c>
+      <c r="D13">
+        <v>983.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1087.4</v>
+      </c>
+      <c r="D14">
+        <v>1090.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1139.8</v>
+      </c>
+      <c r="D15">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1201</v>
+      </c>
+      <c r="D16">
+        <v>1202.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1211.4</v>
+      </c>
+      <c r="D17">
+        <v>1213.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>